--- a/CART dependencies/fault_timeseries_bank.xlsx
+++ b/CART dependencies/fault_timeseries_bank.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banderso2\Documents\MIRACL\CART3_FTC_121620\CART dependencies\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banderso2\Documents\MIRACL\CART3_FAC_paper\CART dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019A7BD5-2141-4C99-BAC9-0541F56EF231}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AED0A6-485A-448A-85B6-80233F17D68F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7F115CDE-135B-8C4E-8434-4861B6DBDAA2}"/>
   </bookViews>
@@ -1288,1087 +1288,1087 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="361"/>
                 <c:pt idx="0">
-                  <c:v>99501</c:v>
+                  <c:v>100592</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>99610.991666708331</c:v>
+                  <c:v>101352.99166670833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101876.93333466665</c:v>
+                  <c:v>101012.93333466665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101157.77501012478</c:v>
+                  <c:v>101460.77501012478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>101991.46670933171</c:v>
+                  <c:v>102890.46670933171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102612.95846353391</c:v>
+                  <c:v>102701.95846353391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103731.20032397223</c:v>
+                  <c:v>103470.20032397223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>104070.14236687664</c:v>
+                  <c:v>103817.14236687664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103127.73469845863</c:v>
+                  <c:v>103750.73469845863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104954.92745990056</c:v>
+                  <c:v>104308.92745990056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105180.67083234141</c:v>
+                  <c:v>105045.67083234141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>106366.91504185874</c:v>
+                  <c:v>105562.91504185874</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106470.61036444597</c:v>
+                  <c:v>106592.61036444597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107014.70713098474</c:v>
+                  <c:v>107404.70713098474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>107594.15573221183</c:v>
+                  <c:v>107467.15573221183</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>107961.90662367996</c:v>
+                  <c:v>106725.90662367996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>107543.9103307123</c:v>
+                  <c:v>108151.9103307123</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108214.1174533498</c:v>
+                  <c:v>108895.1174533498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>108098.4786712912</c:v>
+                  <c:v>109110.4786712912</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>110367.94474882503</c:v>
+                  <c:v>108735.94474882503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110486.46653975306</c:v>
+                  <c:v>110056.46653975306</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>110273.99499230497</c:v>
+                  <c:v>109657.99499230497</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>110243.48115404346</c:v>
+                  <c:v>111412.48115404346</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>112275.87617675943</c:v>
+                  <c:v>111074.87617675943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111908.13132135673</c:v>
+                  <c:v>111442.13132135673</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>113069.19796272615</c:v>
+                  <c:v>111794.19796272615</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>112393.02759460776</c:v>
+                  <c:v>113336.02759460776</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112961.57183444157</c:v>
+                  <c:v>112966.57183444157</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112937.78242820568</c:v>
+                  <c:v>112987.78242820568</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>114800.61125524178</c:v>
+                  <c:v>114981.61125524178</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>115507.01033306698</c:v>
+                  <c:v>113907.01033306698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>115187.93182217218</c:v>
+                  <c:v>114945.93182217218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>115752.32803080589</c:v>
+                  <c:v>114828.32803080589</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>116037.15141974342</c:v>
+                  <c:v>117174.15141974342</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>117365.35460704072</c:v>
+                  <c:v>116454.35460704072</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>116328.89037277257</c:v>
+                  <c:v>116822.89037277257</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>118028.7116637545</c:v>
+                  <c:v>117851.7116637545</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>118356.7715982481</c:v>
+                  <c:v>117467.7715982481</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>118942.02347064913</c:v>
+                  <c:v>117582.02347064913</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>119945.42075615807</c:v>
+                  <c:v>119280.42075615807</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>118644.91711543253</c:v>
+                  <c:v>119109.91711543253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>119618.46639922114</c:v>
+                  <c:v>120177.46639922114</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>120231.02265297851</c:v>
+                  <c:v>121185.02265297851</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>120608.54012146054</c:v>
+                  <c:v>119956.54012146054</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>121250.97325329998</c:v>
+                  <c:v>120708.97325329998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>121261.27670556151</c:v>
+                  <c:v>121336.27670556151</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>121671.40534827599</c:v>
+                  <c:v>121481.40534827599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>123360.31426895341</c:v>
+                  <c:v>121812.31426895341</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122814.95877707415</c:v>
+                  <c:v>122616.95877707415</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>123633.29440855791</c:v>
+                  <c:v>123616.29440855791</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>124868.27693021015</c:v>
+                  <c:v>123975.27693021015</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>125093.86234414537</c:v>
+                  <c:v>124198.86234414537</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>125405.00689218684</c:v>
+                  <c:v>125470.00689218684</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>125317.66706024235</c:v>
+                  <c:v>125154.66706024235</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>124963.79958265566</c:v>
+                  <c:v>124921.79958265566</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>125990.36144653296</c:v>
+                  <c:v>125258.36144653296</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125637.30989604417</c:v>
+                  <c:v>125596.30989604417</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>126143.60243669846</c:v>
+                  <c:v>127278.60243669846</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>127909.19683959367</c:v>
+                  <c:v>128368.19683959367</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>126864.05114563918</c:v>
+                  <c:v>128354.05114563918</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>127245.12366975177</c:v>
+                  <c:v>128714.12366975177</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>129617.37300502407</c:v>
+                  <c:v>128593.37300502407</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>129831.75802686525</c:v>
+                  <c:v>129256.75802686525</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>128998.23789711347</c:v>
+                  <c:v>129078.23789711347</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>129285.77206811961</c:v>
+                  <c:v>128871.77206811961</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>129393.32028680197</c:v>
+                  <c:v>129304.32028680197</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>130672.84259867169</c:v>
+                  <c:v>130558.84259867169</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>131828.299351828</c:v>
+                  <c:v>131376.299351828</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>132427.65120092343</c:v>
+                  <c:v>130782.65120092343</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>130924.8591110984</c:v>
+                  <c:v>131528.8591110984</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>131377.88436188456</c:v>
+                  <c:v>131323.88436188456</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>132079.68855107683</c:v>
+                  <c:v>133117.68855107683</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>133193.23359857366</c:v>
+                  <c:v>132855.23359857366</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>134150.4817501849</c:v>
+                  <c:v>132521.4817501849</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>134134.39558140724</c:v>
+                  <c:v>133296.39558140724</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>134975.93800116671</c:v>
+                  <c:v>134350.93800116671</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>133514.07225552757</c:v>
+                  <c:v>134516.07225552757</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>135119.76193136783</c:v>
+                  <c:v>135190.76193136783</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>134643.9709600205</c:v>
+                  <c:v>134849.9709600205</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>135985.6636208804</c:v>
+                  <c:v>136181.6636208804</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>135953.80454497616</c:v>
+                  <c:v>136169.80454497616</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>135588.35871850714</c:v>
+                  <c:v>135508.35871850714</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>135909.29148634479</c:v>
+                  <c:v>135572.29148634479</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>137372.56855549815</c:v>
+                  <c:v>136494.56855549815</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>137543.15599854296</c:v>
+                  <c:v>137597.15599854296</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>138025.02025701464</c:v>
+                  <c:v>137752.02025701464</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>138252.12814476385</c:v>
+                  <c:v>137541.12814476385</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>137321.44685127525</c:v>
+                  <c:v>137597.44685127525</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>138080.94394494846</c:v>
+                  <c:v>138369.94394494846</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>138572.58737634119</c:v>
+                  <c:v>138954.58737634119</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>139244.34548137418</c:v>
+                  <c:v>139134.34548137418</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>140449.18698449753</c:v>
+                  <c:v>138895.18698449753</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>140055.0810018183</c:v>
+                  <c:v>140039.0810018183</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>139805.99704418884</c:v>
+                  <c:v>139886.99704418884</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>140821.90502025571</c:v>
+                  <c:v>139527.90502025571</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>141319.7752394687</c:v>
+                  <c:v>140012.7752394687</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>141205.57841504991</c:v>
+                  <c:v>141259.57841504991</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>140303.28566692251</c:v>
+                  <c:v>142113.28566692251</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>140990.86852459854</c:v>
+                  <c:v>140929.86852459854</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>142380.29893002601</c:v>
+                  <c:v>142509.29893002601</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>142172.54924039482</c:v>
+                  <c:v>142144.54924039482</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>141768.59223090077</c:v>
+                  <c:v>142786.59223090077</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>141865.40109746816</c:v>
+                  <c:v>141680.40109746816</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>143552.94945943018</c:v>
+                  <c:v>143389.94945943018</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>143981.21136216691</c:v>
+                  <c:v>142887.21136216691</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>143337.16127970084</c:v>
+                  <c:v>142946.16127970084</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>143635.7741172493</c:v>
+                  <c:v>142682.7741172493</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>144466.02521373407</c:v>
+                  <c:v>144633.02521373407</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>144171.89034424737</c:v>
+                  <c:v>143444.89034424737</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>144128.34572247436</c:v>
+                  <c:v>143927.34572247436</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>144596.36800307178</c:v>
+                  <c:v>145203.36800307178</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>145339.93428400237</c:v>
+                  <c:v>144342.93428400237</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>144770.02210882524</c:v>
+                  <c:v>144637.02210882524</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>145475.60946894129</c:v>
+                  <c:v>144627.60946894129</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>146138.67480579417</c:v>
+                  <c:v>145933.67480579417</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>146239.19701302605</c:v>
+                  <c:v>145391.19701302605</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>146399.15543858835</c:v>
+                  <c:v>145155.15543858835</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>146416.52988680679</c:v>
+                  <c:v>145508.52988680679</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>146972.30062040102</c:v>
+                  <c:v>145883.30062040102</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>147090.44836245832</c:v>
+                  <c:v>146928.44836245832</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>146899.95429836132</c:v>
+                  <c:v>145927.95429836132</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>147634.80007766929</c:v>
+                  <c:v>145791.80007766929</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>147092.96781595337</c:v>
+                  <c:v>147062.96781595337</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>147261.44009658488</c:v>
+                  <c:v>146553.44009658488</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>146358.19997247696</c:v>
+                  <c:v>148148.19997247696</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>147252.23096777929</c:v>
+                  <c:v>147256.23096777929</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>146958.5170795258</c:v>
+                  <c:v>146890.5170795258</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>148113.04277923462</c:v>
+                  <c:v>147208.04277923462</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>148834.79301446123</c:v>
+                  <c:v>148818.79301446123</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>147209.75321030364</c:v>
+                  <c:v>147938.75321030364</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>148068.90927085964</c:v>
+                  <c:v>148864.90927085964</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>148290.2475806367</c:v>
+                  <c:v>147562.2475806367</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>147576.75500591326</c:v>
+                  <c:v>147610.75500591326</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>148107.41889605223</c:v>
+                  <c:v>149224.41889605223</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>148366.22708476597</c:v>
+                  <c:v>148422.22708476597</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>149237.16789133294</c:v>
+                  <c:v>148134.16789133294</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>149253.23012176581</c:v>
+                  <c:v>149324.23012176581</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>148737.4030699307</c:v>
+                  <c:v>148165.4030699307</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>148461.67651861798</c:v>
+                  <c:v>150085.67651861798</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>149242.04074056383</c:v>
+                  <c:v>150180.04074056383</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>148768.48649942302</c:v>
+                  <c:v>149064.48649942302</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>148782.00505069253</c:v>
+                  <c:v>148513.00505069253</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>148888.588142586</c:v>
+                  <c:v>149405.588142586</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>150477.22801685889</c:v>
+                  <c:v>149924.22801685889</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>149154.91740958433</c:v>
+                  <c:v>149619.91740958433</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>150028.64955187944</c:v>
+                  <c:v>149859.64955187944</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>149648.41817058224</c:v>
+                  <c:v>149234.41817058224</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>149823.21748887905</c:v>
+                  <c:v>148917.21748887905</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>149825.04222688201</c:v>
+                  <c:v>149186.04222688201</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149345.88760215716</c:v>
+                  <c:v>149975.88760215716</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>149390.74933020273</c:v>
+                  <c:v>150791.74933020273</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>148958.62362487742</c:v>
+                  <c:v>150613.62362487742</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>148953.50719877915</c:v>
+                  <c:v>149727.50719877915</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>150188.3972635738</c:v>
+                  <c:v>149912.3972635738</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>149269.29153027397</c:v>
+                  <c:v>150285.29153027397</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>150024.18820946786</c:v>
+                  <c:v>150491.18820946786</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>150722.08601149832</c:v>
+                  <c:v>150015.08601149832</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>149217.98414659174</c:v>
+                  <c:v>150384.98414659174</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>150190.882324937</c:v>
+                  <c:v>150928.882324937</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>149169.78075671455</c:v>
+                  <c:v>150061.78075671455</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>149622.68015207525</c:v>
+                  <c:v>150009.68015207525</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>149261.58172106952</c:v>
+                  <c:v>150304.58172106952</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>149362.4871735262</c:v>
+                  <c:v>148970.4871735262</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>150751.39871888162</c:v>
+                  <c:v>150644.39871888162</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>150164.31906595867</c:v>
+                  <c:v>150703.31906595867</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>150499.25142269593</c:v>
+                  <c:v>149900.25142269593</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>149640.19949582685</c:v>
+                  <c:v>149254.19949582685</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>150658.16749050902</c:v>
+                  <c:v>150715.16749050902</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>150420.16010990378</c:v>
+                  <c:v>149170.16010990378</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>149869.18255470594</c:v>
+                  <c:v>150131.18255470594</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>149691.24052262341</c:v>
+                  <c:v>149301.24052262341</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>148881.34020780789</c:v>
+                  <c:v>148965.34020780789</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>149890.48830023507</c:v>
+                  <c:v>148528.48830023507</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>148877.69198503584</c:v>
+                  <c:v>150045.69198503584</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>149099.95894177767</c:v>
+                  <c:v>149160.95894177767</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>148562.29734369685</c:v>
+                  <c:v>148950.29734369685</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>149355.71585688094</c:v>
+                  <c:v>149253.71585688094</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>148456.22363940228</c:v>
+                  <c:v>149752.22363940228</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>148382.83034040223</c:v>
+                  <c:v>149669.83034040223</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>149783.54609912622</c:v>
+                  <c:v>149135.54609912622</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>149372.38154390975</c:v>
+                  <c:v>148561.38154390975</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>148058.34779111575</c:v>
+                  <c:v>149228.34779111575</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>147920.45644402283</c:v>
+                  <c:v>148377.45644402283</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>149144.71959166488</c:v>
+                  <c:v>148928.71959166488</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>148993.14980762239</c:v>
+                  <c:v>149153.14980762239</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>147684.760148765</c:v>
+                  <c:v>148754.760148765</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>148470.56415394571</c:v>
+                  <c:v>148325.56415394571</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>147187.5758426472</c:v>
+                  <c:v>147652.5758426472</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>147889.80971357977</c:v>
+                  <c:v>148060.80971357977</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>147568.28074323153</c:v>
+                  <c:v>147892.28074323153</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>148312.00438437072</c:v>
+                  <c:v>146637.00438437072</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>147476.99656450053</c:v>
+                  <c:v>146868.99656450053</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>146765.27368426626</c:v>
+                  <c:v>146368.27368426626</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>147608.8526158153</c:v>
+                  <c:v>146636.8526158153</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>147309.75070111002</c:v>
+                  <c:v>147023.75070111002</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>146161.98575019347</c:v>
+                  <c:v>146131.98575019347</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>146208.57603940842</c:v>
+                  <c:v>146122.57603940842</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>146102.54030956977</c:v>
+                  <c:v>146656.54030956977</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>146826.89776409051</c:v>
+                  <c:v>145426.89776409051</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>145928.66806706125</c:v>
+                  <c:v>145166.66806706125</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>144771.87134128407</c:v>
+                  <c:v>144581.87134128407</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>144894.52816626005</c:v>
+                  <c:v>145788.52816626005</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>144296.65957613138</c:v>
+                  <c:v>145796.65957613138</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>145160.28705757798</c:v>
+                  <c:v>144534.28705757798</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>144159.43254766898</c:v>
+                  <c:v>145374.43254766898</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>143422.11843166879</c:v>
+                  <c:v>143538.11843166879</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>144683.3675407987</c:v>
+                  <c:v>144593.3675407987</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>143404.20314995392</c:v>
+                  <c:v>143284.20314995392</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>144193.64897537581</c:v>
+                  <c:v>143702.64897537581</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>143445.72917228064</c:v>
+                  <c:v>143359.72917228064</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>143483.46833244368</c:v>
+                  <c:v>142862.46833244368</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>143635.89148174046</c:v>
+                  <c:v>142181.89148174046</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>141919.02407764381</c:v>
+                  <c:v>142879.02407764381</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>142565.89200667851</c:v>
+                  <c:v>141817.89200667851</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>141171.52158183229</c:v>
+                  <c:v>142368.52158183229</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>142350.93953992488</c:v>
+                  <c:v>141228.93953992488</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>141716.17303893415</c:v>
+                  <c:v>140946.17303893415</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>141161.24965528041</c:v>
+                  <c:v>142068.24965528041</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>141537.19738106872</c:v>
+                  <c:v>141944.19738106872</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>141390.0446212898</c:v>
+                  <c:v>140040.0446212898</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>139884.82019097952</c:v>
+                  <c:v>141202.82019097952</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>139806.55331233738</c:v>
+                  <c:v>139715.55331233738</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>138876.27361180432</c:v>
+                  <c:v>138896.27361180432</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>140477.01111710025</c:v>
+                  <c:v>140041.01111710025</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>138544.796254221</c:v>
+                  <c:v>138966.796254221</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>139594.65984439605</c:v>
+                  <c:v>139250.65984439605</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>138534.63310100627</c:v>
+                  <c:v>138497.63310100627</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>137469.74762646266</c:v>
+                  <c:v>137334.74762646266</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>137076.0354090461</c:v>
+                  <c:v>138163.0354090461</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>137146.52881970853</c:v>
+                  <c:v>138174.52881970853</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>137682.26060883602</c:v>
+                  <c:v>138228.26060883602</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>136022.26390297356</c:v>
+                  <c:v>136535.26390297356</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>136978.57220151258</c:v>
+                  <c:v>136309.57220151258</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>135847.21937334098</c:v>
+                  <c:v>136377.21937334098</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>136613.23965345632</c:v>
+                  <c:v>134960.23965345632</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>135017.66763954223</c:v>
+                  <c:v>134733.66763954223</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>134991.5382885088</c:v>
+                  <c:v>135262.5382885088</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>135628.88691299688</c:v>
+                  <c:v>134429.88691299688</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>134348.74917784682</c:v>
+                  <c:v>134541.74917784682</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>134673.16109653199</c:v>
+                  <c:v>134764.16109653199</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>132823.15902755756</c:v>
+                  <c:v>134238.15902755756</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>133449.77967082456</c:v>
+                  <c:v>133575.77967082456</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>132329.06006396003</c:v>
+                  <c:v>132830.06006396003</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>131983.03757861324</c:v>
+                  <c:v>132203.03757861324</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>131492.74991671855</c:v>
+                  <c:v>132882.74991671855</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>132081.23510672519</c:v>
+                  <c:v>132774.23510672519</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>131658.53149979463</c:v>
+                  <c:v>131621.53149979463</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>131009.67776596523</c:v>
+                  <c:v>131778.67776596523</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>131449.71289028559</c:v>
+                  <c:v>130677.71289028559</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>130071.67616891573</c:v>
+                  <c:v>129456.67616891573</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>130602.60720519783</c:v>
+                  <c:v>129492.60720519783</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>130277.54590569563</c:v>
+                  <c:v>129184.54590569563</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>129996.5324762041</c:v>
+                  <c:v>128712.5324762041</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>129075.60741772861</c:v>
+                  <c:v>128570.60741772861</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>129214.81152243513</c:v>
+                  <c:v>127757.81152243513</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>127916.18586957084</c:v>
+                  <c:v>127788.18586957084</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>127841.77182135632</c:v>
+                  <c:v>126560.77182135632</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>127768.61101884942</c:v>
+                  <c:v>127230.61101884942</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>125861.74537778106</c:v>
+                  <c:v>127019.74537778106</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>127032.2170843638</c:v>
+                  <c:v>125440.2170843638</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>126698.06859107321</c:v>
+                  <c:v>125057.06859107321</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>125593.34261240267</c:v>
+                  <c:v>125968.34261240267</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>123979.08212059192</c:v>
+                  <c:v>123965.08212059192</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>125461.33034132997</c:v>
+                  <c:v>123915.33034132997</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>123915.13074943241</c:v>
+                  <c:v>124294.13074943241</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>122863.52706449413</c:v>
+                  <c:v>122988.52706449413</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>123483.56324651727</c:v>
+                  <c:v>123629.56324651727</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>123615.28349151532</c:v>
+                  <c:v>122155.28349151532</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>121591.73222709355</c:v>
+                  <c:v>123155.73222709355</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>121220.95410800632</c:v>
+                  <c:v>120841.95410800632</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>120388.99401169148</c:v>
+                  <c:v>122232.99401169148</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>121657.89703378295</c:v>
+                  <c:v>120818.89703378295</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>119906.70848360087</c:v>
+                  <c:v>120252.70848360087</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>120627.47387962097</c:v>
+                  <c:v>120001.47387962097</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>120077.2389449226</c:v>
+                  <c:v>118978.2389449226</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>119433.04960261658</c:v>
+                  <c:v>118519.04960261658</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>118038.95197125277</c:v>
+                  <c:v>118453.95197125277</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>118021.99236020842</c:v>
+                  <c:v>118730.99236020842</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>117836.21726505713</c:v>
+                  <c:v>117616.21726505713</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>117431.67336291951</c:v>
+                  <c:v>117552.67336291951</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>116235.40750779523</c:v>
+                  <c:v>116633.40750779523</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>115942.466725878</c:v>
+                  <c:v>115693.466725878</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>116170.8982108527</c:v>
+                  <c:v>116550.8982108527</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>115047.74931917615</c:v>
+                  <c:v>114429.74931917615</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>115466.06756534163</c:v>
+                  <c:v>114752.06756534163</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>114229.90061712722</c:v>
+                  <c:v>114792.90061712722</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>112900.29629082934</c:v>
+                  <c:v>114570.29629082934</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>112461.3025464809</c:v>
+                  <c:v>113575.3025464809</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>111990.96748305555</c:v>
+                  <c:v>112872.96748305555</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>112174.33933365763</c:v>
+                  <c:v>112948.33933365763</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>112094.46646069913</c:v>
+                  <c:v>111177.46646069913</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>111730.39735106321</c:v>
+                  <c:v>111284.39735106321</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>110544.18061125584</c:v>
+                  <c:v>111217.18061125584</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>110429.86496254496</c:v>
+                  <c:v>110797.86496254496</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>110282.49923608852</c:v>
+                  <c:v>110347.49923608852</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>110386.13236805136</c:v>
+                  <c:v>109001.13236805136</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>108428.81339471164</c:v>
+                  <c:v>108495.81339471164</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>108700.59144755726</c:v>
+                  <c:v>108074.59144755726</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>108480.51574837278</c:v>
+                  <c:v>107166.51574837278</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>108356.6356043172</c:v>
+                  <c:v>108178.6356043172</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>107616.00040299336</c:v>
+                  <c:v>106770.00040299336</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>107432.65960750919</c:v>
+                  <c:v>105853.65960750919</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>105329.66275153149</c:v>
+                  <c:v>105275.66275153149</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>106091.05943433248</c:v>
+                  <c:v>104876.05943433248</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>104887.89931583009</c:v>
+                  <c:v>105891.89931583009</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>103693.23211162184</c:v>
+                  <c:v>103760.23211162184</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>103829.10758801346</c:v>
+                  <c:v>103630.10758801346</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>103731.57555704216</c:v>
+                  <c:v>103194.57555704216</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>104056.68587149566</c:v>
+                  <c:v>102896.68587149566</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>102817.48841992673</c:v>
+                  <c:v>103514.48841992673</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>101920.03312166453</c:v>
+                  <c:v>102295.03312166453</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>101042.3699218227</c:v>
+                  <c:v>100631.3699218227</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>101122.5487863048</c:v>
+                  <c:v>100453.5487863048</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>100059.61969680792</c:v>
+                  <c:v>100523.61969680792</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>100025.63264582434</c:v>
+                  <c:v>99133.632645824342</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>100461.63763164257</c:v>
+                  <c:v>99734.637631642574</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>98588.684653347314</c:v>
+                  <c:v>98418.684653347314</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>98545.823705819814</c:v>
+                  <c:v>98505.823705819814</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>98287.104774738225</c:v>
+                  <c:v>99033.104774738225</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>96723.5778315793</c:v>
+                  <c:v>97432.5778315793</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>96185.292828620994</c:v>
+                  <c:v>97435.292828620994</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>95973.299693947614</c:v>
+                  <c:v>96735.299693947614</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>95364.648326456736</c:v>
+                  <c:v>95670.648326456736</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>94921.388590869625</c:v>
+                  <c:v>95965.388590869625</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>94870.570312744559</c:v>
+                  <c:v>95804.570312744559</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>93959.243273494576</c:v>
+                  <c:v>94164.243273494576</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>94986.457205409111</c:v>
+                  <c:v>94798.457205409111</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>92793.261786681018</c:v>
+                  <c:v>94071.261786681018</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>93834.706636438641</c:v>
+                  <c:v>94084.706636438641</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>92222.841309784068</c:v>
+                  <c:v>93360.841309784068</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>91304.715292837573</c:v>
+                  <c:v>92147.715292837573</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>92507.377997789081</c:v>
+                  <c:v>91135.377997789081</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>91757.878757956976</c:v>
+                  <c:v>91208.878757956976</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>90034.266822854843</c:v>
+                  <c:v>90374.266822854843</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>89311.5913532665</c:v>
+                  <c:v>89770.5913532665</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>89933.901416330016</c:v>
+                  <c:v>90647.901416330016</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>89786.245980631022</c:v>
+                  <c:v>88619.245980631022</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>88324.673911305843</c:v>
+                  <c:v>88437.673911305843</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>87986.233965155145</c:v>
+                  <c:v>87647.233965155145</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>86737.97478576815</c:v>
+                  <c:v>87859.97478576815</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>87180.944898658432</c:v>
+                  <c:v>88087.944898658432</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>86713.192706411326</c:v>
+                  <c:v>85894.192706411326</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>85998.766483843792</c:v>
+                  <c:v>87156.766483843792</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>86065.714373176874</c:v>
+                  <c:v>85967.714373176874</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>85831.084379221618</c:v>
+                  <c:v>85964.084379221618</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>84003.924364578532</c:v>
+                  <c:v>85535.924364578532</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>85328.282044851483</c:v>
+                  <c:v>83566.282044851483</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>83445.204983876058</c:v>
+                  <c:v>84713.204983876058</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>84161.740588963294</c:v>
+                  <c:v>82486.740588963294</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>83799.936106158944</c:v>
+                  <c:v>82953.936106158944</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>81519.838615519009</c:v>
+                  <c:v>82611.838615519009</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>82943.495026401564</c:v>
+                  <c:v>82492.495026401564</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>80952.952072776141</c:v>
+                  <c:v>82085.952072776141</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>80995.256308550102</c:v>
+                  <c:v>80922.256308550102</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>79729.454102913485</c:v>
+                  <c:v>80120.454102913485</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>80147.591635701989</c:v>
+                  <c:v>79609.591635701989</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>80348.714892779157</c:v>
+                  <c:v>78944.714892779157</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>78401.869661437682</c:v>
+                  <c:v>79218.869661437682</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>78436.101525820879</c:v>
+                  <c:v>79049.101525820879</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>77670.455862364121</c:v>
+                  <c:v>78915.455862364121</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>77000.977835257378</c:v>
+                  <c:v>78126.977835257378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3447,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D1CE6-F9D0-4450-8EEF-691C0D1369B2}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
-      <selection activeCell="E146" sqref="E146"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B21" s="4">
         <f ca="1">0.25+0.01*RAND()</f>
-        <v>0.25266230362294739</v>
+        <v>0.25675138720111923</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B22" s="4">
         <f ca="1">0.255+0.01*RAND()</f>
-        <v>0.26024190373928663</v>
+        <v>0.26015997166528315</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B23" s="4">
         <f ca="1">0.26+0.01*RAND()</f>
-        <v>0.26451628077241685</v>
+        <v>0.26276845667469229</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B24" s="4">
         <f ca="1">0.265+0.01*RAND()</f>
-        <v>0.26680827010022978</v>
+        <v>0.27225278071654135</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B25" s="4">
         <f ca="1">0.27+0.01*RAND()</f>
-        <v>0.27159441562628406</v>
+        <v>0.2752811037030431</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B26" s="4">
         <f ca="1">0.275+0.01*RAND()</f>
-        <v>0.28052054713506974</v>
+        <v>0.28262043993091945</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B27" s="4">
         <f ca="1">0.28+0.01*RAND()</f>
-        <v>0.28898185478482535</v>
+        <v>0.28785622134883515</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B28" s="4">
         <f ca="1">0.285+0.01*RAND()</f>
-        <v>0.29335516422830249</v>
+        <v>0.28862947293185498</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B33" s="4">
         <f ca="1">0.31+0.01*RAND()</f>
-        <v>0.31165195729944917</v>
+        <v>0.31870905604007826</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B34" s="4">
         <f ca="1">0.315+0.01*RAND()</f>
-        <v>0.31846731546180207</v>
+        <v>0.32138020925317645</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B35" s="4">
         <f ca="1">0.32+0.01*RAND()</f>
-        <v>0.32934317158847493</v>
+        <v>0.32055813311672871</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B36" s="4">
         <f ca="1">0.325+0.01*RAND()</f>
-        <v>0.32987161237824125</v>
+        <v>0.32629555482747641</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B37" s="4">
         <f ca="1">0.33+0.01*RAND()</f>
-        <v>0.33458217189827361</v>
+        <v>0.33277548148043667</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B38" s="4">
         <f ca="1">0.335+0.01*RAND()</f>
-        <v>0.33867902965661556</v>
+        <v>0.34242640801337249</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B39" s="4">
         <f ca="1">0.34+0.01*RAND()</f>
-        <v>0.3496858276354825</v>
+        <v>0.34857030865345079</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B41" s="4">
         <f ca="1">0.35+0.01*RAND()</f>
-        <v>0.35266103994554848</v>
+        <v>0.35621120051863736</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" ref="B42:B51" ca="1" si="0">0.35+0.01*RAND()</f>
-        <v>0.35599287322596374</v>
+        <v>0.3506903632608287</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3579222037245357</v>
+        <v>0.35016857286259495</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35516995591250228</v>
+        <v>0.35986299435443081</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35283010578725688</v>
+        <v>0.35446189992940624</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35296365768061738</v>
+        <v>0.35512918795678655</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35862277763170719</v>
+        <v>0.35353688838651015</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35469158990146021</v>
+        <v>0.35522942908273458</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35005973707456273</v>
+        <v>0.35982370885878701</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35093180483812164</v>
+        <v>0.35055559119639768</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35924913947721371</v>
+        <v>0.35241210724481686</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19FCB0-EF65-4C30-8599-006CB262BC2E}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B32" ca="1" si="0">0.002*RAND()</f>
-        <v>9.8083829549754022E-4</v>
+        <v>1.934892288840296E-3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9474932018087895E-4</v>
+        <v>1.0808999155093395E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6080209488243365E-3</v>
+        <v>1.5325259689118298E-3</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0181175243945235E-3</v>
+        <v>1.781952945984258E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0674501757050674E-3</v>
+        <v>4.8417812266595409E-4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6724576765762382E-3</v>
+        <v>1.9256377195506047E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4147657105889598E-3</v>
+        <v>1.0271983566140033E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0257619964048157E-3</v>
+        <v>2.8581015402537213E-5</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.0317914715174679E-4</v>
+        <v>8.6288944751057659E-4</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6646731618059516E-3</v>
+        <v>1.2845862286414362E-3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.5217365331382454E-4</v>
+        <v>3.5769929956046352E-4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.9660894948324701E-4</v>
+        <v>2.070502238944898E-4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.6835620121953628E-4</v>
+        <v>4.7561014538488226E-4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.054834113900891E-3</v>
+        <v>6.5415996063794782E-5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3626162121891895E-5</v>
+        <v>3.4674243541219662E-4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5378241606457397E-3</v>
+        <v>1.397195800996037E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.3551641798034772E-4</v>
+        <v>1.620005718647179E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4797721973712225E-4</v>
+        <v>1.2687962698074368E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.1536570740862159E-7</v>
+        <v>1.9527424510351523E-3</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8898239639218684E-3</v>
+        <v>1.4784798819603771E-3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.0732223400755217E-4</v>
+        <v>1.4112975075124749E-3</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9735904663842839E-4</v>
+        <v>1.3133620136864007E-3</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>5.7376789999841844E-4</v>
+        <v>1.7542439926937342E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9000320450864071E-3</v>
+        <v>1.9552645329342661E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3778818920300096E-3</v>
+        <v>1.6730427975404918E-3</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5063458821985183E-3</v>
+        <v>8.64235209882752E-4</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0180739122707956E-3</v>
+        <v>1.1211993058312763E-3</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4571934820059983E-3</v>
+        <v>6.0603125881926847E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4560818040691957E-3</v>
+        <v>1.8155899480735316E-3</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.7119744930476406E-4</v>
+        <v>9.7864536532539775E-4</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="B32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.9459179549773639E-4</v>
+        <v>1.9049473007338308E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="B33" s="5">
         <f t="shared" ref="B33:B40" ca="1" si="1">0.002*RAND()</f>
-        <v>6.848135286867665E-4</v>
+        <v>1.5315670475709155E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>6.0388390288664874E-4</v>
+        <v>1.3992887516373152E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1130479046280906E-3</v>
+        <v>1.2409539757387337E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="B36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1364219617612744E-3</v>
+        <v>1.1588772548123827E-4</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.9133642688912619E-4</v>
+        <v>1.8241373995115252E-4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1356430921043684E-3</v>
+        <v>4.5293231260358446E-5</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B39" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>5.6105273311708032E-4</v>
+        <v>7.2398647782676018E-4</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B40" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.6776155415257224E-3</v>
+        <v>1.8173957909103811E-5</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B43" s="5">
         <f ca="1">0.084+0.002*RAND()</f>
-        <v>8.5050138546632181E-2</v>
+        <v>8.4031341069297424E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B44" s="5">
         <f ca="1">0.086+0.002*RAND()</f>
-        <v>8.6952531558167762E-2</v>
+        <v>8.6741543985710656E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B45" s="5">
         <f ca="1">0.088+0.002*RAND()</f>
-        <v>8.8184979907776573E-2</v>
+        <v>8.9443370992528373E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B46" s="5">
         <f ca="1">0.09+0.002*RAND()</f>
-        <v>9.0350952845082405E-2</v>
+        <v>9.1748135591559601E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B47" s="5">
         <f ca="1">0.092+0.002*RAND()</f>
-        <v>9.3278125809927892E-2</v>
+        <v>9.2820834753936488E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B48" s="5">
         <f ca="1">0.094+0.002*RAND()</f>
-        <v>9.5045580953892261E-2</v>
+        <v>9.5740320189227457E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B49" s="5">
         <f ca="1">0.096+0.002*RAND()</f>
-        <v>9.7982938189574473E-2</v>
+        <v>9.7816511382637694E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="B50" s="5">
         <f ca="1">0.098+0.002*RAND()</f>
-        <v>9.8707994854436987E-2</v>
+        <v>9.8911137653301229E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="B54" s="5">
         <f t="shared" ref="B54:B79" ca="1" si="2">0.002*RAND()</f>
-        <v>4.2763071897395478E-4</v>
+        <v>8.4712150345225682E-4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="B55" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.3754642811635969E-4</v>
+        <v>8.6627888842287937E-4</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B56" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6389911845890526E-3</v>
+        <v>7.4637191289910886E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B57" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4178773418094979E-4</v>
+        <v>1.4850859933105496E-3</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B58" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.0935551930555315E-4</v>
+        <v>5.4683014256300664E-4</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B59" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9600283537015051E-3</v>
+        <v>4.6625687897343583E-4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B60" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>4.5547501393687287E-4</v>
+        <v>1.4233835927119679E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B61" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>4.1403840911524535E-4</v>
+        <v>1.4171171698102131E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B62" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>4.4821195011142325E-4</v>
+        <v>1.2948842669650385E-3</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B63" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2.1004095904941634E-4</v>
+        <v>1.0643934376464968E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="B64" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0513354309567176E-3</v>
+        <v>1.8482645585754661E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B65" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1643700378172347E-3</v>
+        <v>1.340016674875985E-3</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B66" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9400894775691148E-3</v>
+        <v>3.3964874459776784E-4</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="B67" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.262341186453823E-3</v>
+        <v>1.8970911580680338E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B68" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9123969263689772E-3</v>
+        <v>2.4745718742580667E-4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="B69" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2627348356630862E-3</v>
+        <v>9.5606241712419579E-4</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B70" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.4452845928674205E-5</v>
+        <v>3.5000967855964714E-4</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B71" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2162971845283365E-4</v>
+        <v>3.8653568767338874E-4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B72" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4968982731949348E-3</v>
+        <v>1.5637366160650167E-3</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="B73" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0171325951021019E-3</v>
+        <v>7.6548688011410888E-4</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B74" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.6396022016445726E-3</v>
+        <v>1.577695849539302E-3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B75" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9317202430605795E-4</v>
+        <v>1.3381856675265882E-3</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="B76" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7138711229513152E-3</v>
+        <v>1.9660440005732933E-3</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="B77" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3.9234145356434704E-4</v>
+        <v>1.7641995326848053E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="B78" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6621696889826782E-5</v>
+        <v>1.1051684663485953E-3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B79" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9427117459953412E-3</v>
+        <v>3.7506817410017177E-4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B80" s="5">
         <f ca="1">0.0002*RAND()</f>
-        <v>1.4022552245231034E-4</v>
+        <v>3.7973968702873644E-5</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B81" s="5">
         <f ca="1">0.002*RAND()</f>
-        <v>8.765014906295459E-4</v>
+        <v>1.3451215978506287E-3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="B82" s="5">
         <f t="shared" ref="B82:B112" ca="1" si="3">0.002*RAND()</f>
-        <v>1.0250445940409661E-3</v>
+        <v>1.4538972926976441E-3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="B83" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9395919960260321E-4</v>
+        <v>1.3271482964216149E-3</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="B84" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5392535546954523E-4</v>
+        <v>6.6959138061702377E-4</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="B85" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0706477953218304E-3</v>
+        <v>1.824744017475921E-3</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="B86" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7285879828363182E-3</v>
+        <v>9.4570574399081809E-4</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B87" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3778835796390378E-3</v>
+        <v>3.9406409819210621E-4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="B88" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.7928670213593405E-4</v>
+        <v>1.12302328888552E-3</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="B89" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.6278520569614857E-4</v>
+        <v>1.9194655013033036E-4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B90" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1990539844835128E-3</v>
+        <v>9.874952234308476E-5</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B91" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9743800176876871E-4</v>
+        <v>1.3190194185397301E-3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B92" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.8569078261248753E-4</v>
+        <v>1.0209941122821427E-3</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -5534,7 +5534,7 @@
       </c>
       <c r="B93" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0672838560820592E-3</v>
+        <v>1.9297404832587163E-3</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B94" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7312127669148826E-4</v>
+        <v>8.631045174205405E-4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B95" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6696483825909033E-3</v>
+        <v>1.2305662353373943E-3</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B96" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.0826553977574899E-4</v>
+        <v>1.4532726197541569E-3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="B97" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1033609895748653E-3</v>
+        <v>1.0268526146504087E-5</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B98" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8867707313931527E-3</v>
+        <v>1.1693567526124549E-3</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="B99" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.5060249359596822E-4</v>
+        <v>1.7470696981748792E-3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B100" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.1299214094121974E-4</v>
+        <v>8.1469825694690569E-4</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B101" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.735529183290986E-4</v>
+        <v>6.8986659369584544E-4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B102" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6024241579215149E-3</v>
+        <v>1.7136247956120025E-3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B103" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.980337386654134E-3</v>
+        <v>1.6857531454327085E-3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B104" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4937143698763107E-3</v>
+        <v>6.0797359348395923E-5</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="B105" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3943722720634723E-3</v>
+        <v>5.5239796625086823E-5</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B106" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.499838864896567E-3</v>
+        <v>1.169622340097433E-3</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="B107" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7816268687434751E-3</v>
+        <v>1.1139844641967615E-3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B108" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8.0235081677115414E-4</v>
+        <v>1.724772989698182E-3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B109" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5135668205503013E-4</v>
+        <v>2.9439624190855394E-4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B110" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2953657639520899E-4</v>
+        <v>5.6249783482261969E-4</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B111" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8.729570693705842E-4</v>
+        <v>7.0403029306205837E-4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B112" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8.2206679846040531E-4</v>
+        <v>3.7653340843896957E-4</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -6030,7 +6030,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DAA9137-9ED1-B74D-A2BB-CEC10A719ABE}">
   <dimension ref="A1:B152"/>
   <sheetViews>
-    <sheetView topLeftCell="A116" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B151"/>
     </sheetView>
   </sheetViews>
@@ -7259,8 +7259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041EA285-3496-1944-BDEA-9A9D83515035}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection sqref="A1:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">110+0.2*RAND()</f>
-        <v>110.0934544162489</v>
+        <v>110.16461478084398</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B61" ca="1" si="0">110+0.2*RAND()</f>
-        <v>110.04266527454149</v>
+        <v>110.04996026274164</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.13515464932279</v>
+        <v>110.14265730092562</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.12434529308888</v>
+        <v>110.17136405681397</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.02340224797558</v>
+        <v>110.10490386871108</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.194259323472</v>
+        <v>110.04570593366758</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.09135434192839</v>
+        <v>110.14547893915935</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.1461323672695</v>
+        <v>110.14884652381944</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.17225795307478</v>
+        <v>110.07015283162944</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.05838032508576</v>
+        <v>110.1040870311288</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.01681895558707</v>
+        <v>110.05323604974038</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18458080363713</v>
+        <v>110.16945538897727</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.0473603355905</v>
+        <v>110.19332617627492</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.03679527912294</v>
+        <v>110.11645945559404</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10971722747233</v>
+        <v>110.13275091514973</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18330296022488</v>
+        <v>110.09375940995442</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16166219218688</v>
+        <v>110.14316760969136</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.0514001141061</v>
+        <v>110.02001443931682</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18549455924637</v>
+        <v>110.1394984964587</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.17833574711413</v>
+        <v>110.14576539111266</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.01396401330983</v>
+        <v>110.15703407595899</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.0068766728612</v>
+        <v>110.00323144680006</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.06952574698987</v>
+        <v>110.15674472652857</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.17568710186531</v>
+        <v>110.09980869835444</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.04229681479367</v>
+        <v>110.06088679430491</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10765738616392</v>
+        <v>110.10448928393818</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.06744750489499</v>
+        <v>110.19431939130403</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.03970058268756</v>
+        <v>110.19845510715338</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.1973336062034</v>
+        <v>110.122928710132</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.12659348961118</v>
+        <v>110.11423032939834</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.15615591429231</v>
+        <v>110.1375368993382</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.12310444218615</v>
+        <v>110.18098101977498</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.0403916831708</v>
+        <v>110.03726371179854</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16736862312388</v>
+        <v>110.08475859845056</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18463667196733</v>
+        <v>110.18333520324251</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16512354543343</v>
+        <v>110.03174620204835</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10202352793793</v>
+        <v>110.10524483838589</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18015199805512</v>
+        <v>110.16636480894624</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.00082395996235</v>
+        <v>110.10728941304339</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.07864980771305</v>
+        <v>110.07638896542488</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.12559242069554</v>
+        <v>110.08505321688418</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.17553390972755</v>
+        <v>110.03627348175812</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.14075048661</v>
+        <v>110.17412311962312</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.15737656013565</v>
+        <v>110.09916118774963</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.03240792471739</v>
+        <v>110.06673370796476</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.17700683680748</v>
+        <v>110.00323424122493</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.11983905741342</v>
+        <v>110.14104860837145</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10756504486694</v>
+        <v>110.09563465619507</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.00765534222586</v>
+        <v>110.18038406106783</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.05688027647494</v>
+        <v>110.16260850251452</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.05784264939133</v>
+        <v>110.15147556787116</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.04972349875288</v>
+        <v>110.05891992327645</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.04807755253125</v>
+        <v>110.18526688707732</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10110322783994</v>
+        <v>110.18365632705515</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.12023529943204</v>
+        <v>110.06176219994286</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.06421621245372</v>
+        <v>110.16477468183145</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.07341286702888</v>
+        <v>110.19241154814907</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.15693558483905</v>
+        <v>110.00792577973658</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16413892200758</v>
+        <v>110.16191731420781</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.0425212924462</v>
+        <v>110.07044791703073</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B2">
         <f ca="1">100000+50000*SIN(0.001*A2)+RANDBETWEEN(-10000, 10000)</f>
-        <v>94114.999991666671</v>
+        <v>103077.99999166667</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B51" ca="1" si="0">100000+50000*SIN(0.001*A3)+RANDBETWEEN(-10000, 10000)</f>
-        <v>106445.99993333334</v>
+        <v>107083.99993333334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>105209.99977500011</v>
+        <v>95078.999775000106</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>93188.999466667097</v>
+        <v>105863.9994666671</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>96946.998958334632</v>
+        <v>93060.998958334632</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>97117.998200003247</v>
+        <v>101526.99820000325</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>93087.997141673666</v>
+        <v>105561.99714167367</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>95904.995733346994</v>
+        <v>96977.995733346994</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>102703.99392502461</v>
+        <v>97376.99392502461</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>97538.991666708331</v>
+        <v>100200.99166670833</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>104693.98890840044</v>
+        <v>103275.98890840044</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>95704.985600103682</v>
+        <v>106498.98560010368</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>92763.981691821376</v>
+        <v>101457.98169182138</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>110661.97713355742</v>
+        <v>104113.97713355742</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>105237.97187531641</v>
+        <v>91677.971875316405</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>109217.96586710357</v>
+        <v>91136.965867103572</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>94025.959058924942</v>
+        <v>105693.95905892494</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>99369.951400787308</v>
+        <v>99458.951400787308</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>94404.942842698365</v>
+        <v>107214.94284269836</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>106116.93333466665</v>
+        <v>110431.93333466665</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>106252.92282670169</v>
+        <v>105084.92282670169</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>94316.911268813987</v>
+        <v>104358.91126881399</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>96314.898611015116</v>
+        <v>96899.898611015116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>107041.88480331772</v>
+        <v>93760.88480331772</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>110306.86979573562</v>
+        <v>102188.86979573562</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>107344.85353828383</v>
+        <v>93933.853538283831</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>91498.835980978605</v>
+        <v>94372.835980978605</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>106938.81707383752</v>
+        <v>109252.81707383752</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>96970.796766879474</v>
+        <v>99775.796766879474</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>95386.77501012478</v>
+        <v>110772.77501012478</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8842,7 +8842,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>99704.751753595207</v>
+        <v>108051.75175359521</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>107132.726947314</v>
+        <v>105762.726947314</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>106688.700541306</v>
+        <v>109214.700541306</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>110495.67248559758</v>
+        <v>103219.67248559758</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>103390.64273021682</v>
+        <v>104433.64273021682</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>108770.61122519347</v>
+        <v>98155.611225193468</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>97599.577920559037</v>
+        <v>110635.57792055904</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>107963.54276634686</v>
+        <v>110801.54276634686</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>106574.50571259206</v>
+        <v>100008.50571259206</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>95849.466709331711</v>
+        <v>95503.466709331711</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>93372.425706604816</v>
+        <v>96990.425706604816</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>105402.38265445239</v>
+        <v>106628.38265445239</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>106486.33750291749</v>
+        <v>93166.337502917493</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>99610.29020204526</v>
+        <v>94387.29020204526</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>105289.24070188301</v>
+        <v>94311.240701883013</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>104635.18895248025</v>
+        <v>101079.18895248025</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>104681.13490388873</v>
+        <v>100858.13490388873</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>111856.07850616249</v>
+        <v>102571.07850616249</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>100420.01970935796</v>
+        <v>106414.01970935796</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>110544.95846353391</v>
+        <v>108072.95846353391</v>
       </c>
     </row>
   </sheetData>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">100000+50000*SIN(0.001*A2)+RANDBETWEEN(-1000, 1000)</f>
-        <v>99501</v>
+        <v>100592</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B66" ca="1" si="0">100000+50000*SIN(0.001*A3)+RANDBETWEEN(-1000, 1000)</f>
-        <v>99610.991666708331</v>
+        <v>101352.99166670833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101876.93333466665</v>
+        <v>101012.93333466665</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101157.77501012478</v>
+        <v>101460.77501012478</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101991.46670933171</v>
+        <v>102890.46670933171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102612.95846353391</v>
+        <v>102701.95846353391</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103731.20032397223</v>
+        <v>103470.20032397223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>104070.14236687664</v>
+        <v>103817.14236687664</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103127.73469845863</v>
+        <v>103750.73469845863</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>104954.92745990056</v>
+        <v>104308.92745990056</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105180.67083234141</v>
+        <v>105045.67083234141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106366.91504185874</v>
+        <v>105562.91504185874</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106470.61036444597</v>
+        <v>106592.61036444597</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107014.70713098474</v>
+        <v>107404.70713098474</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107594.15573221183</v>
+        <v>107467.15573221183</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107961.90662367996</v>
+        <v>106725.90662367996</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107543.9103307123</v>
+        <v>108151.9103307123</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108214.1174533498</v>
+        <v>108895.1174533498</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108098.4786712912</v>
+        <v>109110.4786712912</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110367.94474882503</v>
+        <v>108735.94474882503</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110486.46653975306</v>
+        <v>110056.46653975306</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110273.99499230497</v>
+        <v>109657.99499230497</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110243.48115404346</v>
+        <v>111412.48115404346</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112275.87617675943</v>
+        <v>111074.87617675943</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111908.13132135673</v>
+        <v>111442.13132135673</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>113069.19796272615</v>
+        <v>111794.19796272615</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112393.02759460776</v>
+        <v>113336.02759460776</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112961.57183444157</v>
+        <v>112966.57183444157</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112937.78242820568</v>
+        <v>112987.78242820568</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114800.61125524178</v>
+        <v>114981.61125524178</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -9794,7 +9794,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115507.01033306698</v>
+        <v>113907.01033306698</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115187.93182217218</v>
+        <v>114945.93182217218</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>115752.32803080589</v>
+        <v>114828.32803080589</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116037.15141974342</v>
+        <v>117174.15141974342</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117365.35460704072</v>
+        <v>116454.35460704072</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116328.89037277257</v>
+        <v>116822.89037277257</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118028.7116637545</v>
+        <v>117851.7116637545</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118356.7715982481</v>
+        <v>117467.7715982481</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118942.02347064913</v>
+        <v>117582.02347064913</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>119945.42075615807</v>
+        <v>119280.42075615807</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>118644.91711543253</v>
+        <v>119109.91711543253</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>119618.46639922114</v>
+        <v>120177.46639922114</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>120231.02265297851</v>
+        <v>121185.02265297851</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>120608.54012146054</v>
+        <v>119956.54012146054</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121250.97325329998</v>
+        <v>120708.97325329998</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121261.27670556151</v>
+        <v>121336.27670556151</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121671.40534827599</v>
+        <v>121481.40534827599</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>123360.31426895341</v>
+        <v>121812.31426895341</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>122814.95877707415</v>
+        <v>122616.95877707415</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>123633.29440855791</v>
+        <v>123616.29440855791</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>124868.27693021015</v>
+        <v>123975.27693021015</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125093.86234414537</v>
+        <v>124198.86234414537</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125405.00689218684</v>
+        <v>125470.00689218684</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125317.66706024235</v>
+        <v>125154.66706024235</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>124963.79958265566</v>
+        <v>124921.79958265566</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125990.36144653296</v>
+        <v>125258.36144653296</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125637.30989604417</v>
+        <v>125596.30989604417</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>126143.60243669846</v>
+        <v>127278.60243669846</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>127909.19683959367</v>
+        <v>128368.19683959367</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>126864.05114563918</v>
+        <v>128354.05114563918</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>127245.12366975177</v>
+        <v>128714.12366975177</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>129617.37300502407</v>
+        <v>128593.37300502407</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>129831.75802686525</v>
+        <v>129256.75802686525</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>128998.23789711347</v>
+        <v>129078.23789711347</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>129285.77206811961</v>
+        <v>128871.77206811961</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" ref="B67:B130" ca="1" si="1">100000+50000*SIN(0.001*A67)+RANDBETWEEN(-1000, 1000)</f>
-        <v>129393.32028680197</v>
+        <v>129304.32028680197</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>130672.84259867169</v>
+        <v>130558.84259867169</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>131828.299351828</v>
+        <v>131376.299351828</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132427.65120092343</v>
+        <v>130782.65120092343</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>130924.8591110984</v>
+        <v>131528.8591110984</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>131377.88436188456</v>
+        <v>131323.88436188456</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132079.68855107683</v>
+        <v>133117.68855107683</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>133193.23359857366</v>
+        <v>132855.23359857366</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>134150.4817501849</v>
+        <v>132521.4817501849</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>134134.39558140724</v>
+        <v>133296.39558140724</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>134975.93800116671</v>
+        <v>134350.93800116671</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>133514.07225552757</v>
+        <v>134516.07225552757</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135119.76193136783</v>
+        <v>135190.76193136783</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>134643.9709600205</v>
+        <v>134849.9709600205</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135985.6636208804</v>
+        <v>136181.6636208804</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135953.80454497616</v>
+        <v>136169.80454497616</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135588.35871850714</v>
+        <v>135508.35871850714</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="B84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135909.29148634479</v>
+        <v>135572.29148634479</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137372.56855549815</v>
+        <v>136494.56855549815</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="B86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137543.15599854296</v>
+        <v>137597.15599854296</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>138025.02025701464</v>
+        <v>137752.02025701464</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="B88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>138252.12814476385</v>
+        <v>137541.12814476385</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137321.44685127525</v>
+        <v>137597.44685127525</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>138080.94394494846</v>
+        <v>138369.94394494846</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>138572.58737634119</v>
+        <v>138954.58737634119</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>139244.34548137418</v>
+        <v>139134.34548137418</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140449.18698449753</v>
+        <v>138895.18698449753</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140055.0810018183</v>
+        <v>140039.0810018183</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>139805.99704418884</v>
+        <v>139886.99704418884</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140821.90502025571</v>
+        <v>139527.90502025571</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="B97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>141319.7752394687</v>
+        <v>140012.7752394687</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="B98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>141205.57841504991</v>
+        <v>141259.57841504991</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="B99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140303.28566692251</v>
+        <v>142113.28566692251</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
       </c>
       <c r="B100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140990.86852459854</v>
+        <v>140929.86852459854</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="B101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142380.29893002601</v>
+        <v>142509.29893002601</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="B102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142172.54924039482</v>
+        <v>142144.54924039482</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="B103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>141768.59223090077</v>
+        <v>142786.59223090077</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="B104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>141865.40109746816</v>
+        <v>141680.40109746816</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>143552.94945943018</v>
+        <v>143389.94945943018</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="B106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>143981.21136216691</v>
+        <v>142887.21136216691</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>143337.16127970084</v>
+        <v>142946.16127970084</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="B108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>143635.7741172493</v>
+        <v>142682.7741172493</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -10487,7 +10487,7 @@
       </c>
       <c r="B109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144466.02521373407</v>
+        <v>144633.02521373407</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144171.89034424737</v>
+        <v>143444.89034424737</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="B111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144128.34572247436</v>
+        <v>143927.34572247436</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144596.36800307178</v>
+        <v>145203.36800307178</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145339.93428400237</v>
+        <v>144342.93428400237</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="B114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144770.02210882524</v>
+        <v>144637.02210882524</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="B115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145475.60946894129</v>
+        <v>144627.60946894129</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="B116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146138.67480579417</v>
+        <v>145933.67480579417</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="B117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146239.19701302605</v>
+        <v>145391.19701302605</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="B118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146399.15543858835</v>
+        <v>145155.15543858835</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="B119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146416.52988680679</v>
+        <v>145508.52988680679</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="B120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146972.30062040102</v>
+        <v>145883.30062040102</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="B121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>147090.44836245832</v>
+        <v>146928.44836245832</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="B122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146899.95429836132</v>
+        <v>145927.95429836132</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="B123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>147634.80007766929</v>
+        <v>145791.80007766929</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="B124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>147092.96781595337</v>
+        <v>147062.96781595337</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="B125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>147261.44009658488</v>
+        <v>146553.44009658488</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146358.19997247696</v>
+        <v>148148.19997247696</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="B127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>147252.23096777929</v>
+        <v>147256.23096777929</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146958.5170795258</v>
+        <v>146890.5170795258</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="B129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>148113.04277923462</v>
+        <v>147208.04277923462</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B130" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>148834.79301446123</v>
+        <v>148818.79301446123</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="B131" s="2">
         <f t="shared" ref="B131:B194" ca="1" si="2">100000+50000*SIN(0.001*A131)+RANDBETWEEN(-1000, 1000)</f>
-        <v>147209.75321030364</v>
+        <v>147938.75321030364</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="B132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148068.90927085964</v>
+        <v>148864.90927085964</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148290.2475806367</v>
+        <v>147562.2475806367</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="B134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147576.75500591326</v>
+        <v>147610.75500591326</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="B135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148107.41889605223</v>
+        <v>149224.41889605223</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="B136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148366.22708476597</v>
+        <v>148422.22708476597</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="B137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149237.16789133294</v>
+        <v>148134.16789133294</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="B138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149253.23012176581</v>
+        <v>149324.23012176581</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="B139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148737.4030699307</v>
+        <v>148165.4030699307</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="B140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148461.67651861798</v>
+        <v>150085.67651861798</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="B141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149242.04074056383</v>
+        <v>150180.04074056383</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="B142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148768.48649942302</v>
+        <v>149064.48649942302</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="B143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148782.00505069253</v>
+        <v>148513.00505069253</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="B144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148888.588142586</v>
+        <v>149405.588142586</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="B145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150477.22801685889</v>
+        <v>149924.22801685889</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149154.91740958433</v>
+        <v>149619.91740958433</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150028.64955187944</v>
+        <v>149859.64955187944</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="B148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149648.41817058224</v>
+        <v>149234.41817058224</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149823.21748887905</v>
+        <v>148917.21748887905</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="B150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149825.04222688201</v>
+        <v>149186.04222688201</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="B151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149345.88760215716</v>
+        <v>149975.88760215716</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="B152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149390.74933020273</v>
+        <v>150791.74933020273</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="B153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148958.62362487742</v>
+        <v>150613.62362487742</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="B154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148953.50719877915</v>
+        <v>149727.50719877915</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="B155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150188.3972635738</v>
+        <v>149912.3972635738</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="B156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149269.29153027397</v>
+        <v>150285.29153027397</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="B157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150024.18820946786</v>
+        <v>150491.18820946786</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="B158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150722.08601149832</v>
+        <v>150015.08601149832</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149217.98414659174</v>
+        <v>150384.98414659174</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -10946,7 +10946,7 @@
       </c>
       <c r="B160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150190.882324937</v>
+        <v>150928.882324937</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149169.78075671455</v>
+        <v>150061.78075671455</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="B162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149622.68015207525</v>
+        <v>150009.68015207525</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="B163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149261.58172106952</v>
+        <v>150304.58172106952</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="B164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149362.4871735262</v>
+        <v>148970.4871735262</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150751.39871888162</v>
+        <v>150644.39871888162</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="B166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150164.31906595867</v>
+        <v>150703.31906595867</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150499.25142269593</v>
+        <v>149900.25142269593</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="B168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149640.19949582685</v>
+        <v>149254.19949582685</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="B169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150658.16749050902</v>
+        <v>150715.16749050902</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150420.16010990378</v>
+        <v>149170.16010990378</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149869.18255470594</v>
+        <v>150131.18255470594</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="B172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149691.24052262341</v>
+        <v>149301.24052262341</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="B173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148881.34020780789</v>
+        <v>148965.34020780789</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="B174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149890.48830023507</v>
+        <v>148528.48830023507</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148877.69198503584</v>
+        <v>150045.69198503584</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="B176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149099.95894177767</v>
+        <v>149160.95894177767</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="B177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148562.29734369685</v>
+        <v>148950.29734369685</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="B178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149355.71585688094</v>
+        <v>149253.71585688094</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="B179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148456.22363940228</v>
+        <v>149752.22363940228</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148382.83034040223</v>
+        <v>149669.83034040223</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149783.54609912622</v>
+        <v>149135.54609912622</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="B182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149372.38154390975</v>
+        <v>148561.38154390975</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="B183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148058.34779111575</v>
+        <v>149228.34779111575</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="B184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147920.45644402283</v>
+        <v>148377.45644402283</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="B185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149144.71959166488</v>
+        <v>148928.71959166488</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="B186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148993.14980762239</v>
+        <v>149153.14980762239</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="B187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147684.760148765</v>
+        <v>148754.760148765</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="B188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148470.56415394571</v>
+        <v>148325.56415394571</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147187.5758426472</v>
+        <v>147652.5758426472</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="B190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147889.80971357977</v>
+        <v>148060.80971357977</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147568.28074323153</v>
+        <v>147892.28074323153</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -11234,7 +11234,7 @@
       </c>
       <c r="B192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148312.00438437072</v>
+        <v>146637.00438437072</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="B193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147476.99656450053</v>
+        <v>146868.99656450053</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B194" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>146765.27368426626</v>
+        <v>146368.27368426626</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="B195" s="2">
         <f t="shared" ref="B195:B258" ca="1" si="3">100000+50000*SIN(0.001*A195)+RANDBETWEEN(-1000, 1000)</f>
-        <v>147608.8526158153</v>
+        <v>146636.8526158153</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="B196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>147309.75070111002</v>
+        <v>147023.75070111002</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="B197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>146161.98575019347</v>
+        <v>146131.98575019347</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>146208.57603940842</v>
+        <v>146122.57603940842</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="B199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>146102.54030956977</v>
+        <v>146656.54030956977</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="B200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>146826.89776409051</v>
+        <v>145426.89776409051</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="B201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>145928.66806706125</v>
+        <v>145166.66806706125</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="B202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144771.87134128407</v>
+        <v>144581.87134128407</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="B203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144894.52816626005</v>
+        <v>145788.52816626005</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="B204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144296.65957613138</v>
+        <v>145796.65957613138</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="B205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>145160.28705757798</v>
+        <v>144534.28705757798</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -11360,7 +11360,7 @@
       </c>
       <c r="B206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144159.43254766898</v>
+        <v>145374.43254766898</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="B207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143422.11843166879</v>
+        <v>143538.11843166879</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="B208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144683.3675407987</v>
+        <v>144593.3675407987</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="B209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143404.20314995392</v>
+        <v>143284.20314995392</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144193.64897537581</v>
+        <v>143702.64897537581</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="B211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143445.72917228064</v>
+        <v>143359.72917228064</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -11414,7 +11414,7 @@
       </c>
       <c r="B212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143483.46833244368</v>
+        <v>142862.46833244368</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143635.89148174046</v>
+        <v>142181.89148174046</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141919.02407764381</v>
+        <v>142879.02407764381</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>142565.89200667851</v>
+        <v>141817.89200667851</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="B216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141171.52158183229</v>
+        <v>142368.52158183229</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="B217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>142350.93953992488</v>
+        <v>141228.93953992488</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="B218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141716.17303893415</v>
+        <v>140946.17303893415</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="B219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141161.24965528041</v>
+        <v>142068.24965528041</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="B220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141537.19738106872</v>
+        <v>141944.19738106872</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="B221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141390.0446212898</v>
+        <v>140040.0446212898</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="B222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>139884.82019097952</v>
+        <v>141202.82019097952</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="B223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>139806.55331233738</v>
+        <v>139715.55331233738</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="B224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138876.27361180432</v>
+        <v>138896.27361180432</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="B225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>140477.01111710025</v>
+        <v>140041.01111710025</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -11540,7 +11540,7 @@
       </c>
       <c r="B226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138544.796254221</v>
+        <v>138966.796254221</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="B227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>139594.65984439605</v>
+        <v>139250.65984439605</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="B228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138534.63310100627</v>
+        <v>138497.63310100627</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="B229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>137469.74762646266</v>
+        <v>137334.74762646266</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="B230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>137076.0354090461</v>
+        <v>138163.0354090461</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="B231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>137146.52881970853</v>
+        <v>138174.52881970853</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>137682.26060883602</v>
+        <v>138228.26060883602</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>136022.26390297356</v>
+        <v>136535.26390297356</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="B234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>136978.57220151258</v>
+        <v>136309.57220151258</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="B235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>135847.21937334098</v>
+        <v>136377.21937334098</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="B236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>136613.23965345632</v>
+        <v>134960.23965345632</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -11639,7 +11639,7 @@
       </c>
       <c r="B237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>135017.66763954223</v>
+        <v>134733.66763954223</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134991.5382885088</v>
+        <v>135262.5382885088</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="B239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>135628.88691299688</v>
+        <v>134429.88691299688</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="B240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134348.74917784682</v>
+        <v>134541.74917784682</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="B241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134673.16109653199</v>
+        <v>134764.16109653199</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="B242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>132823.15902755756</v>
+        <v>134238.15902755756</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>133449.77967082456</v>
+        <v>133575.77967082456</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -11702,7 +11702,7 @@
       </c>
       <c r="B244" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>132329.06006396003</v>
+        <v>132830.06006396003</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>131983.03757861324</v>
+        <v>132203.03757861324</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -11720,7 +11720,7 @@
       </c>
       <c r="B246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>131492.74991671855</v>
+        <v>132882.74991671855</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="B247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>132081.23510672519</v>
+        <v>132774.23510672519</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>131658.53149979463</v>
+        <v>131621.53149979463</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>131009.67776596523</v>
+        <v>131778.67776596523</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="B250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>131449.71289028559</v>
+        <v>130677.71289028559</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -11765,7 +11765,7 @@
       </c>
       <c r="B251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>130071.67616891573</v>
+        <v>129456.67616891573</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="B252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>130602.60720519783</v>
+        <v>129492.60720519783</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>130277.54590569563</v>
+        <v>129184.54590569563</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -11792,7 +11792,7 @@
       </c>
       <c r="B254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>129996.5324762041</v>
+        <v>128712.5324762041</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>129075.60741772861</v>
+        <v>128570.60741772861</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="B256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>129214.81152243513</v>
+        <v>127757.81152243513</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="B257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>127916.18586957084</v>
+        <v>127788.18586957084</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="B258" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>127841.77182135632</v>
+        <v>126560.77182135632</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="B259" s="2">
         <f t="shared" ref="B259:B322" ca="1" si="4">100000+50000*SIN(0.001*A259)+RANDBETWEEN(-1000, 1000)</f>
-        <v>127768.61101884942</v>
+        <v>127230.61101884942</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="B260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>125861.74537778106</v>
+        <v>127019.74537778106</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="B261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>127032.2170843638</v>
+        <v>125440.2170843638</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -11864,7 +11864,7 @@
       </c>
       <c r="B262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>126698.06859107321</v>
+        <v>125057.06859107321</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="B263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>125593.34261240267</v>
+        <v>125968.34261240267</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="B264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>123979.08212059192</v>
+        <v>123965.08212059192</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="B265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>125461.33034132997</v>
+        <v>123915.33034132997</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>123915.13074943241</v>
+        <v>124294.13074943241</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -11909,7 +11909,7 @@
       </c>
       <c r="B267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>122863.52706449413</v>
+        <v>122988.52706449413</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="B268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>123483.56324651727</v>
+        <v>123629.56324651727</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>123615.28349151532</v>
+        <v>122155.28349151532</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="B270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>121591.73222709355</v>
+        <v>123155.73222709355</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="B271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>121220.95410800632</v>
+        <v>120841.95410800632</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="B272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>120388.99401169148</v>
+        <v>122232.99401169148</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="B273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>121657.89703378295</v>
+        <v>120818.89703378295</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="B274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>119906.70848360087</v>
+        <v>120252.70848360087</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="B275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>120627.47387962097</v>
+        <v>120001.47387962097</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -11990,7 +11990,7 @@
       </c>
       <c r="B276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>120077.2389449226</v>
+        <v>118978.2389449226</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="B277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>119433.04960261658</v>
+        <v>118519.04960261658</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="B278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>118038.95197125277</v>
+        <v>118453.95197125277</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="B279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>118021.99236020842</v>
+        <v>118730.99236020842</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>117836.21726505713</v>
+        <v>117616.21726505713</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="B281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>117431.67336291951</v>
+        <v>117552.67336291951</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>116235.40750779523</v>
+        <v>116633.40750779523</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="B283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>115942.466725878</v>
+        <v>115693.466725878</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="B284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>116170.8982108527</v>
+        <v>116550.8982108527</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="B285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>115047.74931917615</v>
+        <v>114429.74931917615</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>115466.06756534163</v>
+        <v>114752.06756534163</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>114229.90061712722</v>
+        <v>114792.90061712722</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="B288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>112900.29629082934</v>
+        <v>114570.29629082934</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="B289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>112461.3025464809</v>
+        <v>113575.3025464809</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="B290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>111990.96748305555</v>
+        <v>112872.96748305555</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="B291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>112174.33933365763</v>
+        <v>112948.33933365763</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="B292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>112094.46646069913</v>
+        <v>111177.46646069913</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="B293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>111730.39735106321</v>
+        <v>111284.39735106321</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="B294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>110544.18061125584</v>
+        <v>111217.18061125584</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="B295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>110429.86496254496</v>
+        <v>110797.86496254496</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="B296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>110282.49923608852</v>
+        <v>110347.49923608852</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>110386.13236805136</v>
+        <v>109001.13236805136</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -12188,7 +12188,7 @@
       </c>
       <c r="B298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>108428.81339471164</v>
+        <v>108495.81339471164</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="B299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>108700.59144755726</v>
+        <v>108074.59144755726</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>108480.51574837278</v>
+        <v>107166.51574837278</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="B301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>108356.6356043172</v>
+        <v>108178.6356043172</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="B302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107616.00040299336</v>
+        <v>106770.00040299336</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="B303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107432.65960750919</v>
+        <v>105853.65960750919</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -12242,7 +12242,7 @@
       </c>
       <c r="B304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>105329.66275153149</v>
+        <v>105275.66275153149</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="B305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>106091.05943433248</v>
+        <v>104876.05943433248</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="B306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>104887.89931583009</v>
+        <v>105891.89931583009</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="B307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>103693.23211162184</v>
+        <v>103760.23211162184</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>103829.10758801346</v>
+        <v>103630.10758801346</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="B309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>103731.57555704216</v>
+        <v>103194.57555704216</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="B310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>104056.68587149566</v>
+        <v>102896.68587149566</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102817.48841992673</v>
+        <v>103514.48841992673</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="B312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>101920.03312166453</v>
+        <v>102295.03312166453</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>101042.3699218227</v>
+        <v>100631.3699218227</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="B314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>101122.5487863048</v>
+        <v>100453.5487863048</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>100059.61969680792</v>
+        <v>100523.61969680792</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>100025.63264582434</v>
+        <v>99133.632645824342</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="B317" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>100461.63763164257</v>
+        <v>99734.637631642574</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B318" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>98588.684653347314</v>
+        <v>98418.684653347314</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="B319" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>98545.823705819814</v>
+        <v>98505.823705819814</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="B320" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>98287.104774738225</v>
+        <v>99033.104774738225</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="B321" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>96723.5778315793</v>
+        <v>97432.5778315793</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="B322" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>96185.292828620994</v>
+        <v>97435.292828620994</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B323" s="2">
         <f t="shared" ref="B323:B362" ca="1" si="5">100000+50000*SIN(0.001*A323)+RANDBETWEEN(-1000, 1000)</f>
-        <v>95973.299693947614</v>
+        <v>96735.299693947614</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -12422,7 +12422,7 @@
       </c>
       <c r="B324" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>95364.648326456736</v>
+        <v>95670.648326456736</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="B325" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>94921.388590869625</v>
+        <v>95965.388590869625</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="B326" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>94870.570312744559</v>
+        <v>95804.570312744559</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="B327" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>93959.243273494576</v>
+        <v>94164.243273494576</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="B328" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>94986.457205409111</v>
+        <v>94798.457205409111</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="B329" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>92793.261786681018</v>
+        <v>94071.261786681018</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="B330" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>93834.706636438641</v>
+        <v>94084.706636438641</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="B331" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>92222.841309784068</v>
+        <v>93360.841309784068</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="B332" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>91304.715292837573</v>
+        <v>92147.715292837573</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B333" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>92507.377997789081</v>
+        <v>91135.377997789081</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B334" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>91757.878757956976</v>
+        <v>91208.878757956976</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="B335" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>90034.266822854843</v>
+        <v>90374.266822854843</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -12530,7 +12530,7 @@
       </c>
       <c r="B336" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>89311.5913532665</v>
+        <v>89770.5913532665</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="B337" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>89933.901416330016</v>
+        <v>90647.901416330016</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -12548,7 +12548,7 @@
       </c>
       <c r="B338" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>89786.245980631022</v>
+        <v>88619.245980631022</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B339" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>88324.673911305843</v>
+        <v>88437.673911305843</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="B340" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>87986.233965155145</v>
+        <v>87647.233965155145</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="B341" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>86737.97478576815</v>
+        <v>87859.97478576815</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="B342" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>87180.944898658432</v>
+        <v>88087.944898658432</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="B343" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>86713.192706411326</v>
+        <v>85894.192706411326</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="B344" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>85998.766483843792</v>
+        <v>87156.766483843792</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="B345" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>86065.714373176874</v>
+        <v>85967.714373176874</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="B346" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>85831.084379221618</v>
+        <v>85964.084379221618</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="B347" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>84003.924364578532</v>
+        <v>85535.924364578532</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -12638,7 +12638,7 @@
       </c>
       <c r="B348" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>85328.282044851483</v>
+        <v>83566.282044851483</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="B349" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>83445.204983876058</v>
+        <v>84713.204983876058</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B350" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>84161.740588963294</v>
+        <v>82486.740588963294</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B351" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>83799.936106158944</v>
+        <v>82953.936106158944</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="B352" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>81519.838615519009</v>
+        <v>82611.838615519009</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B353" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>82943.495026401564</v>
+        <v>82492.495026401564</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -12692,7 +12692,7 @@
       </c>
       <c r="B354" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>80952.952072776141</v>
+        <v>82085.952072776141</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="B355" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>80995.256308550102</v>
+        <v>80922.256308550102</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -12710,7 +12710,7 @@
       </c>
       <c r="B356" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>79729.454102913485</v>
+        <v>80120.454102913485</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="B357" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>80147.591635701989</v>
+        <v>79609.591635701989</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -12728,7 +12728,7 @@
       </c>
       <c r="B358" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>80348.714892779157</v>
+        <v>78944.714892779157</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="B359" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>78401.869661437682</v>
+        <v>79218.869661437682</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="B360" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>78436.101525820879</v>
+        <v>79049.101525820879</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="B361" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>77670.455862364121</v>
+        <v>78915.455862364121</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -12764,7 +12764,7 @@
       </c>
       <c r="B362" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>77000.977835257378</v>
+        <v>78126.977835257378</v>
       </c>
     </row>
   </sheetData>

--- a/CART dependencies/fault_timeseries_bank.xlsx
+++ b/CART dependencies/fault_timeseries_bank.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\banderso2\Documents\MIRACL\CART3_FAC_paper\CART dependencies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AED0A6-485A-448A-85B6-80233F17D68F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD2D4E4E-754B-4016-AB09-CF37F2B90F07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7F115CDE-135B-8C4E-8434-4861B6DBDAA2}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7F115CDE-135B-8C4E-8434-4861B6DBDAA2}"/>
   </bookViews>
   <sheets>
     <sheet name="dT" sheetId="9" r:id="rId1"/>
@@ -1288,1087 +1288,1087 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="361"/>
                 <c:pt idx="0">
-                  <c:v>100592</c:v>
+                  <c:v>100219</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>101352.99166670833</c:v>
+                  <c:v>100824.99166670833</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>101012.93333466665</c:v>
+                  <c:v>101763.93333466665</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101460.77501012478</c:v>
+                  <c:v>101812.77501012478</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>102890.46670933171</c:v>
+                  <c:v>102602.46670933171</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>102701.95846353391</c:v>
+                  <c:v>103042.95846353391</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>103470.20032397223</c:v>
+                  <c:v>103672.20032397223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>103817.14236687664</c:v>
+                  <c:v>103125.14236687664</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103750.73469845863</c:v>
+                  <c:v>104837.73469845863</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>104308.92745990056</c:v>
+                  <c:v>105490.92745990056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105045.67083234141</c:v>
+                  <c:v>105765.67083234141</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105562.91504185874</c:v>
+                  <c:v>104856.91504185874</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>106592.61036444597</c:v>
+                  <c:v>105212.61036444597</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>107404.70713098474</c:v>
+                  <c:v>107047.70713098474</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>107467.15573221183</c:v>
+                  <c:v>106428.15573221183</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>106725.90662367996</c:v>
+                  <c:v>107993.90662367996</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>108151.9103307123</c:v>
+                  <c:v>107563.9103307123</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>108895.1174533498</c:v>
+                  <c:v>108995.1174533498</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>109110.4786712912</c:v>
+                  <c:v>108417.4786712912</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>108735.94474882503</c:v>
+                  <c:v>109801.94474882503</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>110056.46653975306</c:v>
+                  <c:v>109845.46653975306</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>109657.99499230497</c:v>
+                  <c:v>110692.99499230497</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>111412.48115404346</c:v>
+                  <c:v>110279.48115404346</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111074.87617675943</c:v>
+                  <c:v>110495.87617675943</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111442.13132135673</c:v>
+                  <c:v>112789.13132135673</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111794.19796272615</c:v>
+                  <c:v>112774.19796272615</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>113336.02759460776</c:v>
+                  <c:v>113744.02759460776</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>112966.57183444157</c:v>
+                  <c:v>112781.57183444157</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>112987.78242820568</c:v>
+                  <c:v>113165.78242820568</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>114981.61125524178</c:v>
+                  <c:v>113708.61125524178</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>113907.01033306698</c:v>
+                  <c:v>115232.01033306698</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>114945.93182217218</c:v>
+                  <c:v>114276.93182217218</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>114828.32803080589</c:v>
+                  <c:v>115204.32803080589</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>117174.15141974342</c:v>
+                  <c:v>116236.15141974342</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>116454.35460704072</c:v>
+                  <c:v>117543.35460704072</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>116822.89037277257</c:v>
+                  <c:v>116744.89037277257</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>117851.7116637545</c:v>
+                  <c:v>117333.7116637545</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>117467.7715982481</c:v>
+                  <c:v>118991.7715982481</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>117582.02347064913</c:v>
+                  <c:v>118629.02347064913</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>119280.42075615807</c:v>
+                  <c:v>119238.42075615807</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>119109.91711543253</c:v>
+                  <c:v>119235.91711543253</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>120177.46639922114</c:v>
+                  <c:v>120034.46639922114</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>121185.02265297851</c:v>
+                  <c:v>120664.02265297851</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>119956.54012146054</c:v>
+                  <c:v>121297.54012146054</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>120708.97325329998</c:v>
+                  <c:v>120607.97325329998</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>121336.27670556151</c:v>
+                  <c:v>122678.27670556151</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>121481.40534827599</c:v>
+                  <c:v>122387.40534827599</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>121812.31426895341</c:v>
+                  <c:v>121727.31426895341</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>122616.95877707415</c:v>
+                  <c:v>122800.95877707415</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>123616.29440855791</c:v>
+                  <c:v>123791.29440855791</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>123975.27693021015</c:v>
+                  <c:v>124357.27693021015</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>124198.86234414537</c:v>
+                  <c:v>124091.86234414537</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>125470.00689218684</c:v>
+                  <c:v>124062.00689218684</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>125154.66706024235</c:v>
+                  <c:v>126004.66706024235</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>124921.79958265566</c:v>
+                  <c:v>125663.79958265566</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>125258.36144653296</c:v>
+                  <c:v>126881.36144653296</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>125596.30989604417</c:v>
+                  <c:v>126166.30989604417</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>127278.60243669846</c:v>
+                  <c:v>126252.60243669846</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>128368.19683959367</c:v>
+                  <c:v>127819.19683959367</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>128354.05114563918</c:v>
+                  <c:v>127470.05114563918</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>128714.12366975177</c:v>
+                  <c:v>127570.12366975177</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>128593.37300502407</c:v>
+                  <c:v>129339.37300502407</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>129256.75802686525</c:v>
+                  <c:v>129627.75802686525</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>129078.23789711347</c:v>
+                  <c:v>129996.23789711347</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>128871.77206811961</c:v>
+                  <c:v>130232.77206811961</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>129304.32028680197</c:v>
+                  <c:v>129604.32028680197</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>130558.84259867169</c:v>
+                  <c:v>129853.84259867169</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>131376.299351828</c:v>
+                  <c:v>131250.299351828</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>130782.65120092343</c:v>
+                  <c:v>132285.65120092343</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>131528.8591110984</c:v>
+                  <c:v>132350.8591110984</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>131323.88436188456</c:v>
+                  <c:v>132837.88436188456</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>133117.68855107683</c:v>
+                  <c:v>132195.68855107683</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>132855.23359857366</c:v>
+                  <c:v>132615.23359857366</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>132521.4817501849</c:v>
+                  <c:v>134237.4817501849</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>133296.39558140724</c:v>
+                  <c:v>132943.39558140724</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>134350.93800116671</c:v>
+                  <c:v>134396.93800116671</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>134516.07225552757</c:v>
+                  <c:v>134688.07225552757</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>135190.76193136783</c:v>
+                  <c:v>134495.76193136783</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>134849.9709600205</c:v>
+                  <c:v>135804.9709600205</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>136181.6636208804</c:v>
+                  <c:v>136063.6636208804</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>136169.80454497616</c:v>
+                  <c:v>135488.80454497616</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>135508.35871850714</c:v>
+                  <c:v>136838.35871850714</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>135572.29148634479</c:v>
+                  <c:v>136481.29148634479</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>136494.56855549815</c:v>
+                  <c:v>137086.56855549815</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>137597.15599854296</c:v>
+                  <c:v>137990.15599854296</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>137752.02025701464</c:v>
+                  <c:v>137787.02025701464</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>137541.12814476385</c:v>
+                  <c:v>137590.12814476385</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>137597.44685127525</c:v>
+                  <c:v>137397.44685127525</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>138369.94394494846</c:v>
+                  <c:v>138445.94394494846</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>138954.58737634119</c:v>
+                  <c:v>138405.58737634119</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>139134.34548137418</c:v>
+                  <c:v>138371.34548137418</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>138895.18698449753</c:v>
+                  <c:v>139590.18698449753</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>140039.0810018183</c:v>
+                  <c:v>140695.0810018183</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>139886.99704418884</c:v>
+                  <c:v>139584.99704418884</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>139527.90502025571</c:v>
+                  <c:v>140959.90502025571</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>140012.7752394687</c:v>
+                  <c:v>140623.7752394687</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>141259.57841504991</c:v>
+                  <c:v>140205.57841504991</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>142113.28566692251</c:v>
+                  <c:v>140397.28566692251</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>140929.86852459854</c:v>
+                  <c:v>140848.86852459854</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>142509.29893002601</c:v>
+                  <c:v>142332.29893002601</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>142144.54924039482</c:v>
+                  <c:v>141178.54924039482</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>142786.59223090077</c:v>
+                  <c:v>142639.59223090077</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>141680.40109746816</c:v>
+                  <c:v>142417.40109746816</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>143389.94945943018</c:v>
+                  <c:v>143218.94945943018</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>142887.21136216691</c:v>
+                  <c:v>143524.21136216691</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>142946.16127970084</c:v>
+                  <c:v>143519.16127970084</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>142682.7741172493</c:v>
+                  <c:v>143467.7741172493</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>144633.02521373407</c:v>
+                  <c:v>143568.02521373407</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>143444.89034424737</c:v>
+                  <c:v>143110.89034424737</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>143927.34572247436</c:v>
+                  <c:v>144387.34572247436</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>145203.36800307178</c:v>
+                  <c:v>144269.36800307178</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>144342.93428400237</c:v>
+                  <c:v>144564.93428400237</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>144637.02210882524</c:v>
+                  <c:v>145642.02210882524</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>144627.60946894129</c:v>
+                  <c:v>144325.60946894129</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>145933.67480579417</c:v>
+                  <c:v>144955.67480579417</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>145391.19701302605</c:v>
+                  <c:v>145122.19701302605</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>145155.15543858835</c:v>
+                  <c:v>145833.15543858835</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>145508.52988680679</c:v>
+                  <c:v>145488.52988680679</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>145883.30062040102</c:v>
+                  <c:v>145852.30062040102</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>146928.44836245832</c:v>
+                  <c:v>145647.44836245832</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>145927.95429836132</c:v>
+                  <c:v>147527.95429836132</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>145791.80007766929</c:v>
+                  <c:v>147483.80007766929</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>147062.96781595337</c:v>
+                  <c:v>146754.96781595337</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>146553.44009658488</c:v>
+                  <c:v>147055.44009658488</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>148148.19997247696</c:v>
+                  <c:v>147841.19997247696</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>147256.23096777929</c:v>
+                  <c:v>147547.23096777929</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>146890.5170795258</c:v>
+                  <c:v>148086.5170795258</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>147208.04277923462</c:v>
+                  <c:v>147243.04277923462</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>148818.79301446123</c:v>
+                  <c:v>148035.79301446123</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>147938.75321030364</c:v>
+                  <c:v>148479.75321030364</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>148864.90927085964</c:v>
+                  <c:v>147624.90927085964</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>147562.2475806367</c:v>
+                  <c:v>148218.2475806367</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>147610.75500591326</c:v>
+                  <c:v>147504.75500591326</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>149224.41889605223</c:v>
+                  <c:v>148302.41889605223</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>148422.22708476597</c:v>
+                  <c:v>149073.22708476597</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>148134.16789133294</c:v>
+                  <c:v>148412.16789133294</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>149324.23012176581</c:v>
+                  <c:v>149216.23012176581</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>148165.4030699307</c:v>
+                  <c:v>149282.4030699307</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>150085.67651861798</c:v>
+                  <c:v>149657.67651861798</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>150180.04074056383</c:v>
+                  <c:v>149721.04074056383</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>149064.48649942302</c:v>
+                  <c:v>148673.48649942302</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>148513.00505069253</c:v>
+                  <c:v>148613.00505069253</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>149405.588142586</c:v>
+                  <c:v>148479.588142586</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>149924.22801685889</c:v>
+                  <c:v>149745.22801685889</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>149619.91740958433</c:v>
+                  <c:v>149946.91740958433</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>149859.64955187944</c:v>
+                  <c:v>149065.64955187944</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>149234.41817058224</c:v>
+                  <c:v>150498.41817058224</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>148917.21748887905</c:v>
+                  <c:v>149501.21748887905</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>149186.04222688201</c:v>
+                  <c:v>149119.04222688201</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>149975.88760215716</c:v>
+                  <c:v>149911.88760215716</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>150791.74933020273</c:v>
+                  <c:v>150353.74933020273</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>150613.62362487742</c:v>
+                  <c:v>150660.62362487742</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>149727.50719877915</c:v>
+                  <c:v>150817.50719877915</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>149912.3972635738</c:v>
+                  <c:v>150890.3972635738</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>150285.29153027397</c:v>
+                  <c:v>149302.29153027397</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>150491.18820946786</c:v>
+                  <c:v>150786.18820946786</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>150015.08601149832</c:v>
+                  <c:v>149651.08601149832</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>150384.98414659174</c:v>
+                  <c:v>150543.98414659174</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>150928.882324937</c:v>
+                  <c:v>149037.882324937</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>150061.78075671455</c:v>
+                  <c:v>149995.78075671455</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>150009.68015207525</c:v>
+                  <c:v>150186.68015207525</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>150304.58172106952</c:v>
+                  <c:v>150642.58172106952</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>148970.4871735262</c:v>
+                  <c:v>149819.4871735262</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>150644.39871888162</c:v>
+                  <c:v>150097.39871888162</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>150703.31906595867</c:v>
+                  <c:v>149859.31906595867</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>149900.25142269593</c:v>
+                  <c:v>149760.25142269593</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>149254.19949582685</c:v>
+                  <c:v>148961.19949582685</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>150715.16749050902</c:v>
+                  <c:v>148777.16749050902</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>149170.16010990378</c:v>
+                  <c:v>149661.16010990378</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>150131.18255470594</c:v>
+                  <c:v>149953.18255470594</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>149301.24052262341</c:v>
+                  <c:v>149002.24052262341</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>148965.34020780789</c:v>
+                  <c:v>148966.34020780789</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>148528.48830023507</c:v>
+                  <c:v>149592.48830023507</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>150045.69198503584</c:v>
+                  <c:v>148714.69198503584</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>149160.95894177767</c:v>
+                  <c:v>150184.95894177767</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>148950.29734369685</c:v>
+                  <c:v>150098.29734369685</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>149253.71585688094</c:v>
+                  <c:v>149359.71585688094</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>149752.22363940228</c:v>
+                  <c:v>149248.22363940228</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>149669.83034040223</c:v>
+                  <c:v>149836.83034040223</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>149135.54609912622</c:v>
+                  <c:v>148071.54609912622</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>148561.38154390975</c:v>
+                  <c:v>149350.38154390975</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>149228.34779111575</c:v>
+                  <c:v>148421.34779111575</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>148377.45644402283</c:v>
+                  <c:v>149013.45644402283</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>148928.71959166488</c:v>
+                  <c:v>147364.71959166488</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>149153.14980762239</c:v>
+                  <c:v>148104.14980762239</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>148754.760148765</c:v>
+                  <c:v>147801.760148765</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>148325.56415394571</c:v>
+                  <c:v>147901.56415394571</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>147652.5758426472</c:v>
+                  <c:v>147016.5758426472</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>148060.80971357977</c:v>
+                  <c:v>147951.80971357977</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>147892.28074323153</c:v>
+                  <c:v>148370.28074323153</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>146637.00438437072</c:v>
+                  <c:v>146557.00438437072</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>146868.99656450053</c:v>
+                  <c:v>148049.99656450053</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>146368.27368426626</c:v>
+                  <c:v>146260.27368426626</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>146636.8526158153</c:v>
+                  <c:v>146575.8526158153</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>147023.75070111002</c:v>
+                  <c:v>146340.75070111002</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>146131.98575019347</c:v>
+                  <c:v>145998.98575019347</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>146122.57603940842</c:v>
+                  <c:v>146943.57603940842</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>146656.54030956977</c:v>
+                  <c:v>145447.54030956977</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>145426.89776409051</c:v>
+                  <c:v>145878.89776409051</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>145166.66806706125</c:v>
+                  <c:v>144979.66806706125</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>144581.87134128407</c:v>
+                  <c:v>145367.87134128407</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>145788.52816626005</c:v>
+                  <c:v>144794.52816626005</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>145796.65957613138</c:v>
+                  <c:v>145311.65957613138</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>144534.28705757798</c:v>
+                  <c:v>145228.28705757798</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>145374.43254766898</c:v>
+                  <c:v>145200.43254766898</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>143538.11843166879</c:v>
+                  <c:v>145102.11843166879</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>144593.3675407987</c:v>
+                  <c:v>144729.3675407987</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>143284.20314995392</c:v>
+                  <c:v>143581.20314995392</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>143702.64897537581</c:v>
+                  <c:v>142923.64897537581</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>143359.72917228064</c:v>
+                  <c:v>143065.72917228064</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>142862.46833244368</c:v>
+                  <c:v>143240.46833244368</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>142181.89148174046</c:v>
+                  <c:v>142395.89148174046</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>142879.02407764381</c:v>
+                  <c:v>141810.02407764381</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>141817.89200667851</c:v>
+                  <c:v>141854.89200667851</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>142368.52158183229</c:v>
+                  <c:v>142139.52158183229</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>141228.93953992488</c:v>
+                  <c:v>141118.93953992488</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>140946.17303893415</c:v>
+                  <c:v>141933.17303893415</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>142068.24965528041</c:v>
+                  <c:v>140380.24965528041</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>141944.19738106872</c:v>
+                  <c:v>140952.19738106872</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>140040.0446212898</c:v>
+                  <c:v>141160.0446212898</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>141202.82019097952</c:v>
+                  <c:v>140837.82019097952</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>139715.55331233738</c:v>
+                  <c:v>139191.55331233738</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>138896.27361180432</c:v>
+                  <c:v>139132.27361180432</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>140041.01111710025</c:v>
+                  <c:v>140415.01111710025</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>138966.796254221</c:v>
+                  <c:v>139182.796254221</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>139250.65984439605</c:v>
+                  <c:v>138892.65984439605</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>138497.63310100627</c:v>
+                  <c:v>138867.63310100627</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>137334.74762646266</c:v>
+                  <c:v>137775.74762646266</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>138163.0354090461</c:v>
+                  <c:v>138473.0354090461</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>138174.52881970853</c:v>
+                  <c:v>136759.52881970853</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>138228.26060883602</c:v>
+                  <c:v>137757.26060883602</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>136535.26390297356</c:v>
+                  <c:v>137811.26390297356</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>136309.57220151258</c:v>
+                  <c:v>137536.57220151258</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>136377.21937334098</c:v>
+                  <c:v>137111.21937334098</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>134960.23965345632</c:v>
+                  <c:v>136201.23965345632</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>134733.66763954223</c:v>
+                  <c:v>134614.66763954223</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>135262.5382885088</c:v>
+                  <c:v>135179.5382885088</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>134429.88691299688</c:v>
+                  <c:v>135352.88691299688</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>134541.74917784682</c:v>
+                  <c:v>135439.74917784682</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>134764.16109653199</c:v>
+                  <c:v>134262.16109653199</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>134238.15902755756</c:v>
+                  <c:v>133969.15902755756</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>133575.77967082456</c:v>
+                  <c:v>133013.77967082456</c:v>
                 </c:pt>
                 <c:pt idx="242">
                   <c:v>132830.06006396003</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>132203.03757861324</c:v>
+                  <c:v>132551.03757861324</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>132882.74991671855</c:v>
+                  <c:v>132028.74991671855</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>132774.23510672519</c:v>
+                  <c:v>131708.23510672519</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>131621.53149979463</c:v>
+                  <c:v>132280.53149979463</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>131778.67776596523</c:v>
+                  <c:v>130806.67776596523</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>130677.71289028559</c:v>
+                  <c:v>130581.71289028559</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>129456.67616891573</c:v>
+                  <c:v>130023.67616891573</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>129492.60720519783</c:v>
+                  <c:v>130230.60720519783</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>129184.54590569563</c:v>
+                  <c:v>129400.54590569563</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>128712.5324762041</c:v>
+                  <c:v>128805.5324762041</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>128570.60741772861</c:v>
+                  <c:v>128097.60741772861</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>127757.81152243513</c:v>
+                  <c:v>128868.81152243513</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>127788.18586957084</c:v>
+                  <c:v>127146.18586957084</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>126560.77182135632</c:v>
+                  <c:v>127216.77182135632</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>127230.61101884942</c:v>
+                  <c:v>127131.61101884942</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>127019.74537778106</c:v>
+                  <c:v>127053.74537778106</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>125440.2170843638</c:v>
+                  <c:v>125936.2170843638</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>125057.06859107321</c:v>
+                  <c:v>125207.06859107321</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>125968.34261240267</c:v>
+                  <c:v>125698.34261240267</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>123965.08212059192</c:v>
+                  <c:v>124839.08212059192</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>123915.33034132997</c:v>
+                  <c:v>125228.33034132997</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>124294.13074943241</c:v>
+                  <c:v>123371.13074943241</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>122988.52706449413</c:v>
+                  <c:v>123839.52706449413</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>123629.56324651727</c:v>
+                  <c:v>122644.56324651727</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>122155.28349151532</c:v>
+                  <c:v>123563.28349151532</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>123155.73222709355</c:v>
+                  <c:v>123264.73222709355</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>120841.95410800632</c:v>
+                  <c:v>121127.95410800632</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>122232.99401169148</c:v>
+                  <c:v>120548.99401169148</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>120818.89703378295</c:v>
+                  <c:v>121416.89703378295</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>120252.70848360087</c:v>
+                  <c:v>120051.70848360087</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>120001.47387962097</c:v>
+                  <c:v>120205.47387962097</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>118978.2389449226</c:v>
+                  <c:v>120437.2389449226</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>118519.04960261658</c:v>
+                  <c:v>118759.04960261658</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>118453.95197125277</c:v>
+                  <c:v>118655.95197125277</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>118730.99236020842</c:v>
+                  <c:v>118576.99236020842</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>117616.21726505713</c:v>
+                  <c:v>118602.21726505713</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>117552.67336291951</c:v>
+                  <c:v>116283.67336291951</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>116633.40750779523</c:v>
+                  <c:v>116659.40750779523</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>115693.466725878</c:v>
+                  <c:v>115430.466725878</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>116550.8982108527</c:v>
+                  <c:v>116439.8982108527</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>114429.74931917615</c:v>
+                  <c:v>115304.74931917615</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>114752.06756534163</c:v>
+                  <c:v>114507.06756534163</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>114792.90061712722</c:v>
+                  <c:v>115069.90061712722</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>114570.29629082934</c:v>
+                  <c:v>113203.29629082934</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>113575.3025464809</c:v>
+                  <c:v>112714.3025464809</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>112872.96748305555</c:v>
+                  <c:v>113819.96748305555</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>112948.33933365763</c:v>
+                  <c:v>111960.33933365763</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>111177.46646069913</c:v>
+                  <c:v>111365.46646069913</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>111284.39735106321</c:v>
+                  <c:v>111119.39735106321</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>111217.18061125584</c:v>
+                  <c:v>111280.18061125584</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>110797.86496254496</c:v>
+                  <c:v>109859.86496254496</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>110347.49923608852</c:v>
+                  <c:v>110580.49923608852</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>109001.13236805136</c:v>
+                  <c:v>110308.13236805136</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>108495.81339471164</c:v>
+                  <c:v>108845.81339471164</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>108074.59144755726</c:v>
+                  <c:v>109108.59144755726</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>107166.51574837278</c:v>
+                  <c:v>107740.51574837278</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>108178.6356043172</c:v>
+                  <c:v>108537.6356043172</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>106770.00040299336</c:v>
+                  <c:v>107709.00040299336</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>105853.65960750919</c:v>
+                  <c:v>106336.65960750919</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>105275.66275153149</c:v>
+                  <c:v>105950.66275153149</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>104876.05943433248</c:v>
+                  <c:v>106194.05943433248</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>105891.89931583009</c:v>
+                  <c:v>105471.89931583009</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>103760.23211162184</c:v>
+                  <c:v>105572.23211162184</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>103630.10758801346</c:v>
+                  <c:v>103258.10758801346</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>103194.57555704216</c:v>
+                  <c:v>103115.57555704216</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>102896.68587149566</c:v>
+                  <c:v>102126.68587149566</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>103514.48841992673</c:v>
+                  <c:v>101691.48841992673</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>102295.03312166453</c:v>
+                  <c:v>102188.03312166453</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>100631.3699218227</c:v>
+                  <c:v>101820.3699218227</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>100453.5487863048</c:v>
+                  <c:v>101704.5487863048</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>100523.61969680792</c:v>
+                  <c:v>99627.619696807917</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>99133.632645824342</c:v>
+                  <c:v>99635.632645824342</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>99734.637631642574</c:v>
+                  <c:v>100226.63763164257</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>98418.684653347314</c:v>
+                  <c:v>98537.684653347314</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>98505.823705819814</c:v>
+                  <c:v>99327.823705819814</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>99033.104774738225</c:v>
+                  <c:v>97980.104774738225</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>97432.5778315793</c:v>
+                  <c:v>97474.5778315793</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>97435.292828620994</c:v>
+                  <c:v>96270.292828620994</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>96735.299693947614</c:v>
+                  <c:v>96770.299693947614</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>95670.648326456736</c:v>
+                  <c:v>95158.648326456736</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>95965.388590869625</c:v>
+                  <c:v>96000.388590869625</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>95804.570312744559</c:v>
+                  <c:v>94398.570312744559</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>94164.243273494576</c:v>
+                  <c:v>95387.243273494576</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>94798.457205409111</c:v>
+                  <c:v>94349.457205409111</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>94071.261786681018</c:v>
+                  <c:v>92833.261786681018</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>94084.706636438641</c:v>
+                  <c:v>93445.706636438641</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>93360.841309784068</c:v>
+                  <c:v>93045.841309784068</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>92147.715292837573</c:v>
+                  <c:v>91601.715292837573</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>91135.377997789081</c:v>
+                  <c:v>90850.377997789081</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>91208.878757956976</c:v>
+                  <c:v>91935.878757956976</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>90374.266822854843</c:v>
+                  <c:v>90842.266822854843</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>89770.5913532665</c:v>
+                  <c:v>89873.5913532665</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>90647.901416330016</c:v>
+                  <c:v>89043.901416330016</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>88619.245980631022</c:v>
+                  <c:v>89362.245980631022</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>88437.673911305843</c:v>
+                  <c:v>89181.673911305843</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>87647.233965155145</c:v>
+                  <c:v>87548.233965155145</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>87859.97478576815</c:v>
+                  <c:v>88137.97478576815</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>88087.944898658432</c:v>
+                  <c:v>86530.944898658432</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>85894.192706411326</c:v>
+                  <c:v>86451.192706411326</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>87156.766483843792</c:v>
+                  <c:v>86877.766483843792</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>85967.714373176874</c:v>
+                  <c:v>85898.714373176874</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>85964.084379221618</c:v>
+                  <c:v>85955.084379221618</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>85535.924364578532</c:v>
+                  <c:v>85560.924364578532</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>83566.282044851483</c:v>
+                  <c:v>83769.282044851483</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>84713.204983876058</c:v>
+                  <c:v>83592.204983876058</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>82486.740588963294</c:v>
+                  <c:v>83457.740588963294</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>82953.936106158944</c:v>
+                  <c:v>83237.936106158944</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>82611.838615519009</c:v>
+                  <c:v>83344.838615519009</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>82492.495026401564</c:v>
+                  <c:v>81832.495026401564</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>82085.952072776141</c:v>
+                  <c:v>81107.952072776141</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>80922.256308550102</c:v>
+                  <c:v>81980.256308550102</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>80120.454102913485</c:v>
+                  <c:v>81585.454102913485</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>79609.591635701989</c:v>
+                  <c:v>79312.591635701989</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>78944.714892779157</c:v>
+                  <c:v>80589.714892779157</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>79218.869661437682</c:v>
+                  <c:v>79275.869661437682</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>79049.101525820879</c:v>
+                  <c:v>78058.101525820879</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>78915.455862364121</c:v>
+                  <c:v>77589.455862364121</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>78126.977835257378</c:v>
+                  <c:v>77909.977835257378</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3447,8 +3447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46D1CE6-F9D0-4450-8EEF-691C0D1369B2}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21:B151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3619,7 +3619,7 @@
       </c>
       <c r="B21" s="4">
         <f ca="1">0.25+0.01*RAND()</f>
-        <v>0.25675138720111923</v>
+        <v>0.25424407214841538</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3628,7 +3628,7 @@
       </c>
       <c r="B22" s="4">
         <f ca="1">0.255+0.01*RAND()</f>
-        <v>0.26015997166528315</v>
+        <v>0.25642265591385321</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3637,7 +3637,7 @@
       </c>
       <c r="B23" s="4">
         <f ca="1">0.26+0.01*RAND()</f>
-        <v>0.26276845667469229</v>
+        <v>0.2620783232229596</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3646,7 +3646,7 @@
       </c>
       <c r="B24" s="4">
         <f ca="1">0.265+0.01*RAND()</f>
-        <v>0.27225278071654135</v>
+        <v>0.26998780034061126</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3655,7 +3655,7 @@
       </c>
       <c r="B25" s="4">
         <f ca="1">0.27+0.01*RAND()</f>
-        <v>0.2752811037030431</v>
+        <v>0.27326358355855784</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3664,7 +3664,7 @@
       </c>
       <c r="B26" s="4">
         <f ca="1">0.275+0.01*RAND()</f>
-        <v>0.28262043993091945</v>
+        <v>0.28065876523990241</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +3673,7 @@
       </c>
       <c r="B27" s="4">
         <f ca="1">0.28+0.01*RAND()</f>
-        <v>0.28785622134883515</v>
+        <v>0.28697626757405215</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3682,7 +3682,7 @@
       </c>
       <c r="B28" s="4">
         <f ca="1">0.285+0.01*RAND()</f>
-        <v>0.28862947293185498</v>
+        <v>0.29097217172878637</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B33" s="4">
         <f ca="1">0.31+0.01*RAND()</f>
-        <v>0.31870905604007826</v>
+        <v>0.31998261359619568</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -3735,7 +3735,7 @@
       </c>
       <c r="B34" s="4">
         <f ca="1">0.315+0.01*RAND()</f>
-        <v>0.32138020925317645</v>
+        <v>0.32332517203501521</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -3744,7 +3744,7 @@
       </c>
       <c r="B35" s="4">
         <f ca="1">0.32+0.01*RAND()</f>
-        <v>0.32055813311672871</v>
+        <v>0.32285751609931845</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="B36" s="4">
         <f ca="1">0.325+0.01*RAND()</f>
-        <v>0.32629555482747641</v>
+        <v>0.32820378919147508</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -3762,7 +3762,7 @@
       </c>
       <c r="B37" s="4">
         <f ca="1">0.33+0.01*RAND()</f>
-        <v>0.33277548148043667</v>
+        <v>0.3362451340508657</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -3771,7 +3771,7 @@
       </c>
       <c r="B38" s="4">
         <f ca="1">0.335+0.01*RAND()</f>
-        <v>0.34242640801337249</v>
+        <v>0.34129576857413335</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -3780,7 +3780,7 @@
       </c>
       <c r="B39" s="4">
         <f ca="1">0.34+0.01*RAND()</f>
-        <v>0.34857030865345079</v>
+        <v>0.34128980525278868</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
       </c>
       <c r="B41" s="4">
         <f ca="1">0.35+0.01*RAND()</f>
-        <v>0.35621120051863736</v>
+        <v>0.35104919281319502</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -3806,7 +3806,7 @@
       </c>
       <c r="B42" s="4">
         <f t="shared" ref="B42:B51" ca="1" si="0">0.35+0.01*RAND()</f>
-        <v>0.3506903632608287</v>
+        <v>0.35639869128417423</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -3815,7 +3815,7 @@
       </c>
       <c r="B43" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35016857286259495</v>
+        <v>0.35697533325592767</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -3824,7 +3824,7 @@
       </c>
       <c r="B44" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35986299435443081</v>
+        <v>0.35971268704060844</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,7 +3833,7 @@
       </c>
       <c r="B45" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35446189992940624</v>
+        <v>0.35282672362311063</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,7 +3842,7 @@
       </c>
       <c r="B46" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35512918795678655</v>
+        <v>0.35709194022997381</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,7 +3851,7 @@
       </c>
       <c r="B47" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35353688838651015</v>
+        <v>0.35699526037340396</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B48" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35522942908273458</v>
+        <v>0.35108632852194316</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -3869,7 +3869,7 @@
       </c>
       <c r="B49" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35982370885878701</v>
+        <v>0.35299525714802071</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -3878,7 +3878,7 @@
       </c>
       <c r="B50" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35055559119639768</v>
+        <v>0.3500646525981303</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -3887,7 +3887,7 @@
       </c>
       <c r="B51" s="4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35241210724481686</v>
+        <v>0.35393566960161033</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -4700,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E19FCB0-EF65-4C30-8599-006CB262BC2E}">
   <dimension ref="A1:B151"/>
   <sheetViews>
-    <sheetView topLeftCell="A117" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B151"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="K147" sqref="K147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4720,7 +4720,7 @@
       </c>
       <c r="B2" s="5">
         <f t="shared" ref="B2:B32" ca="1" si="0">0.002*RAND()</f>
-        <v>1.934892288840296E-3</v>
+        <v>8.3115798913092225E-4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B3" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0808999155093395E-3</v>
+        <v>1.2252483061315613E-3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -4738,7 +4738,7 @@
       </c>
       <c r="B4" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.5325259689118298E-3</v>
+        <v>7.7322654692357881E-4</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -4747,7 +4747,7 @@
       </c>
       <c r="B5" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.781952945984258E-3</v>
+        <v>6.4418728332551448E-4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -4756,7 +4756,7 @@
       </c>
       <c r="B6" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8417812266595409E-4</v>
+        <v>1.7407723600981347E-3</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -4765,7 +4765,7 @@
       </c>
       <c r="B7" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9256377195506047E-3</v>
+        <v>1.014486614026322E-5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -4774,7 +4774,7 @@
       </c>
       <c r="B8" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.0271983566140033E-3</v>
+        <v>1.0650478645197945E-3</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -4783,7 +4783,7 @@
       </c>
       <c r="B9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.8581015402537213E-5</v>
+        <v>2.0523294584124562E-4</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -4792,7 +4792,7 @@
       </c>
       <c r="B10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.6288944751057659E-4</v>
+        <v>1.8104736474403088E-3</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -4801,7 +4801,7 @@
       </c>
       <c r="B11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2845862286414362E-3</v>
+        <v>4.5199412274029351E-4</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -4810,7 +4810,7 @@
       </c>
       <c r="B12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.5769929956046352E-4</v>
+        <v>4.0931383741963344E-4</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -4819,7 +4819,7 @@
       </c>
       <c r="B13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>2.070502238944898E-4</v>
+        <v>1.3173067923420145E-4</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -4828,7 +4828,7 @@
       </c>
       <c r="B14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.7561014538488226E-4</v>
+        <v>1.2404593328896227E-3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -4837,7 +4837,7 @@
       </c>
       <c r="B15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5415996063794782E-5</v>
+        <v>1.1682442070952272E-3</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4846,7 +4846,7 @@
       </c>
       <c r="B16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>3.4674243541219662E-4</v>
+        <v>2.7504017318225515E-4</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4855,7 +4855,7 @@
       </c>
       <c r="B17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.397195800996037E-3</v>
+        <v>1.3827404064696138E-3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="B18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.620005718647179E-3</v>
+        <v>1.27198568747314E-3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="B19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2687962698074368E-3</v>
+        <v>1.3677818141586673E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9527424510351523E-3</v>
+        <v>8.7774235731770053E-4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4891,7 +4891,7 @@
       </c>
       <c r="B21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4784798819603771E-3</v>
+        <v>6.2375776854616265E-4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4900,7 +4900,7 @@
       </c>
       <c r="B22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4112975075124749E-3</v>
+        <v>2.9278655546724865E-4</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4909,7 +4909,7 @@
       </c>
       <c r="B23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3133620136864007E-3</v>
+        <v>3.4747493559286616E-4</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4918,7 +4918,7 @@
       </c>
       <c r="B24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.7542439926937342E-3</v>
+        <v>1.1480116110914188E-3</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4927,7 +4927,7 @@
       </c>
       <c r="B25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9552645329342661E-3</v>
+        <v>1.5121492664235496E-3</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4936,7 +4936,7 @@
       </c>
       <c r="B26" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.6730427975404918E-3</v>
+        <v>8.3357815412259042E-4</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4945,7 +4945,7 @@
       </c>
       <c r="B27" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>8.64235209882752E-4</v>
+        <v>7.8901050482989231E-5</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4954,7 +4954,7 @@
       </c>
       <c r="B28" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1211993058312763E-3</v>
+        <v>6.4462351386249345E-4</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4963,7 +4963,7 @@
       </c>
       <c r="B29" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0603125881926847E-4</v>
+        <v>4.2259765539540009E-4</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -4972,7 +4972,7 @@
       </c>
       <c r="B30" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.8155899480735316E-3</v>
+        <v>2.851514567461866E-5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -4981,7 +4981,7 @@
       </c>
       <c r="B31" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>9.7864536532539775E-4</v>
+        <v>1.8425283901000811E-3</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -4990,7 +4990,7 @@
       </c>
       <c r="B32" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9049473007338308E-3</v>
+        <v>1.7314356427895891E-3</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -4999,7 +4999,7 @@
       </c>
       <c r="B33" s="5">
         <f t="shared" ref="B33:B40" ca="1" si="1">0.002*RAND()</f>
-        <v>1.5315670475709155E-3</v>
+        <v>1.9431460091969394E-3</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="B34" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3992887516373152E-3</v>
+        <v>1.9640978687601152E-3</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -5017,7 +5017,7 @@
       </c>
       <c r="B35" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.2409539757387337E-3</v>
+        <v>1.013344681198397E-3</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -5026,7 +5026,7 @@
       </c>
       <c r="B36" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1588772548123827E-4</v>
+        <v>1.3547147946406956E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B37" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8241373995115252E-4</v>
+        <v>9.4089690077323908E-4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -5044,7 +5044,7 @@
       </c>
       <c r="B38" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>4.5293231260358446E-5</v>
+        <v>1.2001583290258569E-3</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -5053,7 +5053,7 @@
       </c>
       <c r="B39" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>7.2398647782676018E-4</v>
+        <v>1.5306470228831186E-3</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -5062,7 +5062,7 @@
       </c>
       <c r="B40" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>1.8173957909103811E-5</v>
+        <v>5.4184093661470011E-4</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -5087,7 +5087,7 @@
       </c>
       <c r="B43" s="5">
         <f ca="1">0.084+0.002*RAND()</f>
-        <v>8.4031341069297424E-2</v>
+        <v>8.5638362137978846E-2</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -5096,7 +5096,7 @@
       </c>
       <c r="B44" s="5">
         <f ca="1">0.086+0.002*RAND()</f>
-        <v>8.6741543985710656E-2</v>
+        <v>8.7902482610272906E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -5105,7 +5105,7 @@
       </c>
       <c r="B45" s="5">
         <f ca="1">0.088+0.002*RAND()</f>
-        <v>8.9443370992528373E-2</v>
+        <v>8.9215331652384419E-2</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -5114,7 +5114,7 @@
       </c>
       <c r="B46" s="5">
         <f ca="1">0.09+0.002*RAND()</f>
-        <v>9.1748135591559601E-2</v>
+        <v>9.0040804310874856E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -5123,7 +5123,7 @@
       </c>
       <c r="B47" s="5">
         <f ca="1">0.092+0.002*RAND()</f>
-        <v>9.2820834753936488E-2</v>
+        <v>9.2728742421695973E-2</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="B48" s="5">
         <f ca="1">0.094+0.002*RAND()</f>
-        <v>9.5740320189227457E-2</v>
+        <v>9.5628622419876436E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -5141,7 +5141,7 @@
       </c>
       <c r="B49" s="5">
         <f ca="1">0.096+0.002*RAND()</f>
-        <v>9.7816511382637694E-2</v>
+        <v>9.6748611945779411E-2</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -5150,7 +5150,7 @@
       </c>
       <c r="B50" s="5">
         <f ca="1">0.098+0.002*RAND()</f>
-        <v>9.8911137653301229E-2</v>
+        <v>9.8034103221766838E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -5183,7 +5183,7 @@
       </c>
       <c r="B54" s="5">
         <f t="shared" ref="B54:B79" ca="1" si="2">0.002*RAND()</f>
-        <v>8.4712150345225682E-4</v>
+        <v>3.2491588778809402E-4</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -5192,7 +5192,7 @@
       </c>
       <c r="B55" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6627888842287937E-4</v>
+        <v>1.9765768685316007E-3</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="B56" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4637191289910886E-4</v>
+        <v>1.9028571440720654E-4</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -5210,7 +5210,7 @@
       </c>
       <c r="B57" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4850859933105496E-3</v>
+        <v>2.2049287901429105E-4</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -5219,7 +5219,7 @@
       </c>
       <c r="B58" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>5.4683014256300664E-4</v>
+        <v>1.1168624226038941E-3</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -5228,7 +5228,7 @@
       </c>
       <c r="B59" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>4.6625687897343583E-4</v>
+        <v>9.6110099296279987E-4</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -5237,7 +5237,7 @@
       </c>
       <c r="B60" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4233835927119679E-3</v>
+        <v>1.4240247406911465E-3</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -5246,7 +5246,7 @@
       </c>
       <c r="B61" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.4171171698102131E-3</v>
+        <v>1.6188549155072081E-3</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -5255,7 +5255,7 @@
       </c>
       <c r="B62" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.2948842669650385E-3</v>
+        <v>6.7799273742130792E-4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B63" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.0643934376464968E-3</v>
+        <v>1.7976422026115269E-3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="B64" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8482645585754661E-3</v>
+        <v>1.0753188166455568E-3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -5282,7 +5282,7 @@
       </c>
       <c r="B65" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.340016674875985E-3</v>
+        <v>4.1702228555217372E-4</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -5291,7 +5291,7 @@
       </c>
       <c r="B66" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3964874459776784E-4</v>
+        <v>1.8847053721523027E-3</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -5300,7 +5300,7 @@
       </c>
       <c r="B67" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.8970911580680338E-3</v>
+        <v>1.8098683854474158E-3</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="B68" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4745718742580667E-4</v>
+        <v>2.1232936843720252E-4</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -5318,7 +5318,7 @@
       </c>
       <c r="B69" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>9.5606241712419579E-4</v>
+        <v>1.8551891403834004E-3</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -5327,7 +5327,7 @@
       </c>
       <c r="B70" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3.5000967855964714E-4</v>
+        <v>5.5987080771005672E-5</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -5336,7 +5336,7 @@
       </c>
       <c r="B71" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3.8653568767338874E-4</v>
+        <v>9.2431549788024722E-4</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -5345,7 +5345,7 @@
       </c>
       <c r="B72" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.5637366160650167E-3</v>
+        <v>3.4040054718663317E-4</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -5354,7 +5354,7 @@
       </c>
       <c r="B73" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>7.6548688011410888E-4</v>
+        <v>1.2454029554515823E-3</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -5363,7 +5363,7 @@
       </c>
       <c r="B74" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.577695849539302E-3</v>
+        <v>1.3243357559398208E-3</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -5372,7 +5372,7 @@
       </c>
       <c r="B75" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3381856675265882E-3</v>
+        <v>7.0529868886287872E-5</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="B76" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.9660440005732933E-3</v>
+        <v>5.7666756481326647E-4</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -5390,7 +5390,7 @@
       </c>
       <c r="B77" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.7641995326848053E-3</v>
+        <v>1.1599341094019322E-3</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -5399,7 +5399,7 @@
       </c>
       <c r="B78" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1051684663485953E-3</v>
+        <v>1.8014276015587344E-3</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -5408,7 +5408,7 @@
       </c>
       <c r="B79" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>3.7506817410017177E-4</v>
+        <v>3.4707915167194229E-4</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -5417,7 +5417,7 @@
       </c>
       <c r="B80" s="5">
         <f ca="1">0.0002*RAND()</f>
-        <v>3.7973968702873644E-5</v>
+        <v>1.2240450266194359E-4</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B81" s="5">
         <f ca="1">0.002*RAND()</f>
-        <v>1.3451215978506287E-3</v>
+        <v>1.6090600975437709E-3</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -5435,7 +5435,7 @@
       </c>
       <c r="B82" s="5">
         <f t="shared" ref="B82:B112" ca="1" si="3">0.002*RAND()</f>
-        <v>1.4538972926976441E-3</v>
+        <v>1.4483682666547983E-3</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -5444,7 +5444,7 @@
       </c>
       <c r="B83" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3271482964216149E-3</v>
+        <v>1.9213666375258231E-5</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -5453,7 +5453,7 @@
       </c>
       <c r="B84" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6959138061702377E-4</v>
+        <v>1.7151267817203861E-3</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -5462,7 +5462,7 @@
       </c>
       <c r="B85" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.824744017475921E-3</v>
+        <v>4.4268611407645463E-4</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -5471,7 +5471,7 @@
       </c>
       <c r="B86" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9.4570574399081809E-4</v>
+        <v>1.4190717263065675E-3</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -5480,7 +5480,7 @@
       </c>
       <c r="B87" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9406409819210621E-4</v>
+        <v>4.8510706394420521E-4</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -5489,7 +5489,7 @@
       </c>
       <c r="B88" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.12302328888552E-3</v>
+        <v>3.2175193318062203E-4</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="B89" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9194655013033036E-4</v>
+        <v>5.9280804504008343E-4</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -5507,7 +5507,7 @@
       </c>
       <c r="B90" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>9.874952234308476E-5</v>
+        <v>1.1915506801538408E-3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="B91" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3190194185397301E-3</v>
+        <v>1.3511885731952429E-3</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -5525,7 +5525,7 @@
       </c>
       <c r="B92" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0209941122821427E-3</v>
+        <v>8.3275769814492362E-5</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -5534,7 +5534,7 @@
       </c>
       <c r="B93" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.9297404832587163E-3</v>
+        <v>4.6450555176390007E-4</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -5543,7 +5543,7 @@
       </c>
       <c r="B94" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8.631045174205405E-4</v>
+        <v>5.8898029649812837E-4</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -5552,7 +5552,7 @@
       </c>
       <c r="B95" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.2305662353373943E-3</v>
+        <v>3.4111175856518908E-5</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -5561,7 +5561,7 @@
       </c>
       <c r="B96" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.4532726197541569E-3</v>
+        <v>1.6627354162659432E-3</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -5570,7 +5570,7 @@
       </c>
       <c r="B97" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.0268526146504087E-5</v>
+        <v>7.7101476868821029E-4</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B98" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1693567526124549E-3</v>
+        <v>4.7550537402754747E-4</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -5588,7 +5588,7 @@
       </c>
       <c r="B99" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7470696981748792E-3</v>
+        <v>1.4480765647335648E-3</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -5597,7 +5597,7 @@
       </c>
       <c r="B100" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>8.1469825694690569E-4</v>
+        <v>1.5579041263953021E-3</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -5606,7 +5606,7 @@
       </c>
       <c r="B101" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8986659369584544E-4</v>
+        <v>6.1202448774458156E-4</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B102" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.7136247956120025E-3</v>
+        <v>1.2167145876476096E-3</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -5624,7 +5624,7 @@
       </c>
       <c r="B103" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6857531454327085E-3</v>
+        <v>1.2868562645934013E-3</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -5633,7 +5633,7 @@
       </c>
       <c r="B104" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6.0797359348395923E-5</v>
+        <v>1.1911104676671444E-3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -5642,7 +5642,7 @@
       </c>
       <c r="B105" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.5239796625086823E-5</v>
+        <v>1.0142800436654254E-3</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -5651,7 +5651,7 @@
       </c>
       <c r="B106" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.169622340097433E-3</v>
+        <v>3.0210362890335649E-4</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -5660,7 +5660,7 @@
       </c>
       <c r="B107" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.1139844641967615E-3</v>
+        <v>1.1516240304560515E-3</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -5669,7 +5669,7 @@
       </c>
       <c r="B108" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1.724772989698182E-3</v>
+        <v>2.4998463422757445E-4</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -5678,7 +5678,7 @@
       </c>
       <c r="B109" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9439624190855394E-4</v>
+        <v>3.1448850165397224E-4</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -5687,7 +5687,7 @@
       </c>
       <c r="B110" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5.6249783482261969E-4</v>
+        <v>1.2605496939159613E-3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -5696,7 +5696,7 @@
       </c>
       <c r="B111" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0403029306205837E-4</v>
+        <v>2.9354016801636028E-4</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -5705,7 +5705,7 @@
       </c>
       <c r="B112" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7653340843896957E-4</v>
+        <v>1.4919954286838259E-3</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -7259,7 +7259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041EA285-3496-1944-BDEA-9A9D83515035}">
   <dimension ref="A1:B153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView topLeftCell="A70" workbookViewId="0">
       <selection sqref="A1:B151"/>
     </sheetView>
   </sheetViews>
@@ -7282,7 +7282,7 @@
       </c>
       <c r="B2" s="1">
         <f ca="1">110+0.2*RAND()</f>
-        <v>110.16461478084398</v>
+        <v>110.15354358274934</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -7291,7 +7291,7 @@
       </c>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B61" ca="1" si="0">110+0.2*RAND()</f>
-        <v>110.04996026274164</v>
+        <v>110.18545256961006</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -7300,7 +7300,7 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.14265730092562</v>
+        <v>110.16354016455601</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.17136405681397</v>
+        <v>110.0092409432842</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -7318,7 +7318,7 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10490386871108</v>
+        <v>110.14136429003166</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -7327,7 +7327,7 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.04570593366758</v>
+        <v>110.1744553968305</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -7336,7 +7336,7 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.14547893915935</v>
+        <v>110.09657326523474</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -7345,7 +7345,7 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.14884652381944</v>
+        <v>110.11767794466985</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -7354,7 +7354,7 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.07015283162944</v>
+        <v>110.11574762602369</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -7363,7 +7363,7 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.1040870311288</v>
+        <v>110.12378892871776</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -7372,7 +7372,7 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.05323604974038</v>
+        <v>110.15122285893321</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -7381,7 +7381,7 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16945538897727</v>
+        <v>110.13849669043415</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -7390,7 +7390,7 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.19332617627492</v>
+        <v>110.14913293858346</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -7399,7 +7399,7 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.11645945559404</v>
+        <v>110.08981191418957</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -7408,7 +7408,7 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.13275091514973</v>
+        <v>110.11486158345993</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -7417,7 +7417,7 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.09375940995442</v>
+        <v>110.18419287501681</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -7426,7 +7426,7 @@
       </c>
       <c r="B18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.14316760969136</v>
+        <v>110.18042018053798</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -7435,7 +7435,7 @@
       </c>
       <c r="B19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.02001443931682</v>
+        <v>110.06194307139334</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -7444,7 +7444,7 @@
       </c>
       <c r="B20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.1394984964587</v>
+        <v>110.0081971860029</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -7453,7 +7453,7 @@
       </c>
       <c r="B21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.14576539111266</v>
+        <v>110.15757616066475</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -7462,7 +7462,7 @@
       </c>
       <c r="B22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.15703407595899</v>
+        <v>110.04397768969572</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -7471,7 +7471,7 @@
       </c>
       <c r="B23" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.00323144680006</v>
+        <v>110.08290255226036</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -7480,7 +7480,7 @@
       </c>
       <c r="B24" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.15674472652857</v>
+        <v>110.03633086969985</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -7489,7 +7489,7 @@
       </c>
       <c r="B25" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.09980869835444</v>
+        <v>110.11868266026761</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -7498,7 +7498,7 @@
       </c>
       <c r="B26" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.06088679430491</v>
+        <v>110.11759591994277</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -7507,7 +7507,7 @@
       </c>
       <c r="B27" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10448928393818</v>
+        <v>110.10627775088957</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -7516,7 +7516,7 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.19431939130403</v>
+        <v>110.03566622510679</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.19845510715338</v>
+        <v>110.05292998745527</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -7534,7 +7534,7 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.122928710132</v>
+        <v>110.04708608458472</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -7543,7 +7543,7 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.11423032939834</v>
+        <v>110.14097826201558</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -7552,7 +7552,7 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.1375368993382</v>
+        <v>110.16722459207573</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18098101977498</v>
+        <v>110.05441129829944</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -7570,7 +7570,7 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.03726371179854</v>
+        <v>110.18946829354525</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -7579,7 +7579,7 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.08475859845056</v>
+        <v>110.17737326047229</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -7588,7 +7588,7 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18333520324251</v>
+        <v>110.11807658054245</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -7597,7 +7597,7 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.03174620204835</v>
+        <v>110.15651262153294</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -7606,7 +7606,7 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10524483838589</v>
+        <v>110.04816335050127</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -7615,7 +7615,7 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16636480894624</v>
+        <v>110.00750133679146</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -7624,7 +7624,7 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.10728941304339</v>
+        <v>110.01458480638408</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.07638896542488</v>
+        <v>110.0109231888982</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -7642,7 +7642,7 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.08505321688418</v>
+        <v>110.01093805234314</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -7651,7 +7651,7 @@
       </c>
       <c r="B43" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.03627348175812</v>
+        <v>110.10916051365039</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -7660,7 +7660,7 @@
       </c>
       <c r="B44" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.17412311962312</v>
+        <v>110.04633939978434</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -7669,7 +7669,7 @@
       </c>
       <c r="B45" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.09916118774963</v>
+        <v>110.18988224240758</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -7678,7 +7678,7 @@
       </c>
       <c r="B46" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.06673370796476</v>
+        <v>110.00214119355307</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -7687,7 +7687,7 @@
       </c>
       <c r="B47" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.00323424122493</v>
+        <v>110.04508951328354</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -7696,7 +7696,7 @@
       </c>
       <c r="B48" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.14104860837145</v>
+        <v>110.03676271228629</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="B49" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.09563465619507</v>
+        <v>110.01320038196988</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -7714,7 +7714,7 @@
       </c>
       <c r="B50" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18038406106783</v>
+        <v>110.18982596797795</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -7723,7 +7723,7 @@
       </c>
       <c r="B51" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16260850251452</v>
+        <v>110.09392435047228</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -7732,7 +7732,7 @@
       </c>
       <c r="B52" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.15147556787116</v>
+        <v>110.12829105303335</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -7741,7 +7741,7 @@
       </c>
       <c r="B53" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.05891992327645</v>
+        <v>110.15250195432937</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -7750,7 +7750,7 @@
       </c>
       <c r="B54" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18526688707732</v>
+        <v>110.1687685218606</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -7759,7 +7759,7 @@
       </c>
       <c r="B55" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.18365632705515</v>
+        <v>110.13782195332969</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -7768,7 +7768,7 @@
       </c>
       <c r="B56" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.06176219994286</v>
+        <v>110.17878463377983</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -7777,7 +7777,7 @@
       </c>
       <c r="B57" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16477468183145</v>
+        <v>110.01961880058867</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -7786,7 +7786,7 @@
       </c>
       <c r="B58" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.19241154814907</v>
+        <v>110.13566617276814</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -7795,7 +7795,7 @@
       </c>
       <c r="B59" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.00792577973658</v>
+        <v>110.04632747571127</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -7804,7 +7804,7 @@
       </c>
       <c r="B60" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.16191731420781</v>
+        <v>110.06234957869667</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -7813,7 +7813,7 @@
       </c>
       <c r="B61" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>110.07044791703073</v>
+        <v>110.00322511620756</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -8572,7 +8572,7 @@
       </c>
       <c r="B2">
         <f ca="1">100000+50000*SIN(0.001*A2)+RANDBETWEEN(-10000, 10000)</f>
-        <v>103077.99999166667</v>
+        <v>91961.999991666671</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -8581,7 +8581,7 @@
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B51" ca="1" si="0">100000+50000*SIN(0.001*A3)+RANDBETWEEN(-10000, 10000)</f>
-        <v>107083.99993333334</v>
+        <v>94985.99993333334</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -8590,7 +8590,7 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="0"/>
-        <v>95078.999775000106</v>
+        <v>105981.99977500011</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -8599,7 +8599,7 @@
       </c>
       <c r="B5">
         <f t="shared" ca="1" si="0"/>
-        <v>105863.9994666671</v>
+        <v>107689.9994666671</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -8608,7 +8608,7 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="0"/>
-        <v>93060.998958334632</v>
+        <v>103443.99895833463</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -8617,7 +8617,7 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="0"/>
-        <v>101526.99820000325</v>
+        <v>91759.998200003247</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -8626,7 +8626,7 @@
       </c>
       <c r="B8">
         <f t="shared" ca="1" si="0"/>
-        <v>105561.99714167367</v>
+        <v>99540.997141673666</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -8635,7 +8635,7 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="0"/>
-        <v>96977.995733346994</v>
+        <v>97171.995733346994</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -8644,7 +8644,7 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="0"/>
-        <v>97376.99392502461</v>
+        <v>100535.99392502461</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -8653,7 +8653,7 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="0"/>
-        <v>100200.99166670833</v>
+        <v>96063.991666708331</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -8662,7 +8662,7 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="0"/>
-        <v>103275.98890840044</v>
+        <v>102173.98890840044</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -8671,7 +8671,7 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="0"/>
-        <v>106498.98560010368</v>
+        <v>104117.98560010368</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -8680,7 +8680,7 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="0"/>
-        <v>101457.98169182138</v>
+        <v>105135.98169182138</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -8689,7 +8689,7 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="0"/>
-        <v>104113.97713355742</v>
+        <v>97258.977133557419</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -8698,7 +8698,7 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="0"/>
-        <v>91677.971875316405</v>
+        <v>109924.97187531641</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -8707,7 +8707,7 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="0"/>
-        <v>91136.965867103572</v>
+        <v>98818.965867103572</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -8716,7 +8716,7 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="0"/>
-        <v>105693.95905892494</v>
+        <v>100459.95905892494</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="0"/>
-        <v>99458.951400787308</v>
+        <v>94579.951400787308</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -8734,7 +8734,7 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="0"/>
-        <v>107214.94284269836</v>
+        <v>95408.942842698365</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -8743,7 +8743,7 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="0"/>
-        <v>110431.93333466665</v>
+        <v>102868.93333466665</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -8752,7 +8752,7 @@
       </c>
       <c r="B22">
         <f t="shared" ca="1" si="0"/>
-        <v>105084.92282670169</v>
+        <v>97951.922826701688</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -8761,7 +8761,7 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="0"/>
-        <v>104358.91126881399</v>
+        <v>93186.911268813987</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -8770,7 +8770,7 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="0"/>
-        <v>96899.898611015116</v>
+        <v>92361.898611015116</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -8779,7 +8779,7 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="0"/>
-        <v>93760.88480331772</v>
+        <v>98270.88480331772</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -8788,7 +8788,7 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="0"/>
-        <v>102188.86979573562</v>
+        <v>109613.86979573562</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="0"/>
-        <v>93933.853538283831</v>
+        <v>104818.85353828383</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="0"/>
-        <v>94372.835980978605</v>
+        <v>103544.83598097861</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -8815,7 +8815,7 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="0"/>
-        <v>109252.81707383752</v>
+        <v>91822.817073837519</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -8824,7 +8824,7 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="0"/>
-        <v>99775.796766879474</v>
+        <v>109268.79676687947</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -8833,7 +8833,7 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="0"/>
-        <v>110772.77501012478</v>
+        <v>109982.77501012478</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -8842,7 +8842,7 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="0"/>
-        <v>108051.75175359521</v>
+        <v>102400.75175359521</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -8851,7 +8851,7 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="0"/>
-        <v>105762.726947314</v>
+        <v>99532.726947314004</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -8860,7 +8860,7 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="0"/>
-        <v>109214.700541306</v>
+        <v>92221.700541305996</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -8869,7 +8869,7 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="0"/>
-        <v>103219.67248559758</v>
+        <v>96747.672485597577</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -8878,7 +8878,7 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="0"/>
-        <v>104433.64273021682</v>
+        <v>93358.642730216816</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -8887,7 +8887,7 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="0"/>
-        <v>98155.611225193468</v>
+        <v>109493.61122519347</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -8896,7 +8896,7 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="0"/>
-        <v>110635.57792055904</v>
+        <v>105753.57792055904</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="0"/>
-        <v>110801.54276634686</v>
+        <v>108825.54276634686</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -8914,7 +8914,7 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="0"/>
-        <v>100008.50571259206</v>
+        <v>91974.505712592058</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -8923,7 +8923,7 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="0"/>
-        <v>95503.466709331711</v>
+        <v>102770.46670933171</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -8932,7 +8932,7 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="0"/>
-        <v>96990.425706604816</v>
+        <v>99071.425706604816</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -8941,7 +8941,7 @@
       </c>
       <c r="B43">
         <f t="shared" ca="1" si="0"/>
-        <v>106628.38265445239</v>
+        <v>105812.38265445239</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -8950,7 +8950,7 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="0"/>
-        <v>93166.337502917493</v>
+        <v>100819.33750291749</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -8959,7 +8959,7 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="0"/>
-        <v>94387.29020204526</v>
+        <v>92667.29020204526</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="0"/>
-        <v>94311.240701883013</v>
+        <v>108714.24070188301</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -8977,7 +8977,7 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="0"/>
-        <v>101079.18895248025</v>
+        <v>101250.18895248025</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -8986,7 +8986,7 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="0"/>
-        <v>100858.13490388873</v>
+        <v>97094.134903888727</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -8995,7 +8995,7 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="0"/>
-        <v>102571.07850616249</v>
+        <v>111891.07850616249</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="0"/>
-        <v>106414.01970935796</v>
+        <v>106675.01970935796</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -9013,7 +9013,7 @@
       </c>
       <c r="B51">
         <f t="shared" ca="1" si="0"/>
-        <v>108072.95846353391</v>
+        <v>106855.95846353391</v>
       </c>
     </row>
   </sheetData>
@@ -9523,7 +9523,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">100000+50000*SIN(0.001*A2)+RANDBETWEEN(-1000, 1000)</f>
-        <v>100592</v>
+        <v>100219</v>
       </c>
       <c r="C2" s="2"/>
     </row>
@@ -9533,7 +9533,7 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B66" ca="1" si="0">100000+50000*SIN(0.001*A3)+RANDBETWEEN(-1000, 1000)</f>
-        <v>101352.99166670833</v>
+        <v>100824.99166670833</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -9542,7 +9542,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101012.93333466665</v>
+        <v>101763.93333466665</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -9551,7 +9551,7 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>101460.77501012478</v>
+        <v>101812.77501012478</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102890.46670933171</v>
+        <v>102602.46670933171</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -9569,7 +9569,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>102701.95846353391</v>
+        <v>103042.95846353391</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -9578,7 +9578,7 @@
       </c>
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103470.20032397223</v>
+        <v>103672.20032397223</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -9587,7 +9587,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103817.14236687664</v>
+        <v>103125.14236687664</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="B10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>103750.73469845863</v>
+        <v>104837.73469845863</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -9605,7 +9605,7 @@
       </c>
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>104308.92745990056</v>
+        <v>105490.92745990056</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -9614,7 +9614,7 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105045.67083234141</v>
+        <v>105765.67083234141</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -9623,7 +9623,7 @@
       </c>
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105562.91504185874</v>
+        <v>104856.91504185874</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106592.61036444597</v>
+        <v>105212.61036444597</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -9641,7 +9641,7 @@
       </c>
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107404.70713098474</v>
+        <v>107047.70713098474</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -9650,7 +9650,7 @@
       </c>
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107467.15573221183</v>
+        <v>106428.15573221183</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -9659,7 +9659,7 @@
       </c>
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106725.90662367996</v>
+        <v>107993.90662367996</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -9668,7 +9668,7 @@
       </c>
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108151.9103307123</v>
+        <v>107563.9103307123</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -9677,7 +9677,7 @@
       </c>
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108895.1174533498</v>
+        <v>108995.1174533498</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -9686,7 +9686,7 @@
       </c>
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>109110.4786712912</v>
+        <v>108417.4786712912</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -9695,7 +9695,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108735.94474882503</v>
+        <v>109801.94474882503</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -9704,7 +9704,7 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110056.46653975306</v>
+        <v>109845.46653975306</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -9713,7 +9713,7 @@
       </c>
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>109657.99499230497</v>
+        <v>110692.99499230497</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -9722,7 +9722,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111412.48115404346</v>
+        <v>110279.48115404346</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -9731,7 +9731,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111074.87617675943</v>
+        <v>110495.87617675943</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -9740,7 +9740,7 @@
       </c>
       <c r="B26" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111442.13132135673</v>
+        <v>112789.13132135673</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="B27" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>111794.19796272615</v>
+        <v>112774.19796272615</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B28" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>113336.02759460776</v>
+        <v>113744.02759460776</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -9767,7 +9767,7 @@
       </c>
       <c r="B29" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112966.57183444157</v>
+        <v>112781.57183444157</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -9776,7 +9776,7 @@
       </c>
       <c r="B30" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>112987.78242820568</v>
+        <v>113165.78242820568</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -9785,7 +9785,7 @@
       </c>
       <c r="B31" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114981.61125524178</v>
+        <v>113708.61125524178</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -9794,7 +9794,7 @@
       </c>
       <c r="B32" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>113907.01033306698</v>
+        <v>115232.01033306698</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -9803,7 +9803,7 @@
       </c>
       <c r="B33" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114945.93182217218</v>
+        <v>114276.93182217218</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -9812,7 +9812,7 @@
       </c>
       <c r="B34" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>114828.32803080589</v>
+        <v>115204.32803080589</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -9821,7 +9821,7 @@
       </c>
       <c r="B35" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117174.15141974342</v>
+        <v>116236.15141974342</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -9830,7 +9830,7 @@
       </c>
       <c r="B36" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116454.35460704072</v>
+        <v>117543.35460704072</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
@@ -9839,7 +9839,7 @@
       </c>
       <c r="B37" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>116822.89037277257</v>
+        <v>116744.89037277257</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
@@ -9848,7 +9848,7 @@
       </c>
       <c r="B38" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117851.7116637545</v>
+        <v>117333.7116637545</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -9857,7 +9857,7 @@
       </c>
       <c r="B39" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117467.7715982481</v>
+        <v>118991.7715982481</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="B40" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>117582.02347064913</v>
+        <v>118629.02347064913</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
@@ -9875,7 +9875,7 @@
       </c>
       <c r="B41" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>119280.42075615807</v>
+        <v>119238.42075615807</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
@@ -9884,7 +9884,7 @@
       </c>
       <c r="B42" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>119109.91711543253</v>
+        <v>119235.91711543253</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
@@ -9893,7 +9893,7 @@
       </c>
       <c r="B43" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>120177.46639922114</v>
+        <v>120034.46639922114</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
@@ -9902,7 +9902,7 @@
       </c>
       <c r="B44" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121185.02265297851</v>
+        <v>120664.02265297851</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
@@ -9911,7 +9911,7 @@
       </c>
       <c r="B45" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>119956.54012146054</v>
+        <v>121297.54012146054</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
@@ -9920,7 +9920,7 @@
       </c>
       <c r="B46" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>120708.97325329998</v>
+        <v>120607.97325329998</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
@@ -9929,7 +9929,7 @@
       </c>
       <c r="B47" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121336.27670556151</v>
+        <v>122678.27670556151</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
@@ -9938,7 +9938,7 @@
       </c>
       <c r="B48" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121481.40534827599</v>
+        <v>122387.40534827599</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -9947,7 +9947,7 @@
       </c>
       <c r="B49" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>121812.31426895341</v>
+        <v>121727.31426895341</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -9956,7 +9956,7 @@
       </c>
       <c r="B50" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>122616.95877707415</v>
+        <v>122800.95877707415</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -9965,7 +9965,7 @@
       </c>
       <c r="B51" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>123616.29440855791</v>
+        <v>123791.29440855791</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -9974,7 +9974,7 @@
       </c>
       <c r="B52" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>123975.27693021015</v>
+        <v>124357.27693021015</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B53" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>124198.86234414537</v>
+        <v>124091.86234414537</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -9992,7 +9992,7 @@
       </c>
       <c r="B54" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125470.00689218684</v>
+        <v>124062.00689218684</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -10001,7 +10001,7 @@
       </c>
       <c r="B55" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125154.66706024235</v>
+        <v>126004.66706024235</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
@@ -10010,7 +10010,7 @@
       </c>
       <c r="B56" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>124921.79958265566</v>
+        <v>125663.79958265566</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -10019,7 +10019,7 @@
       </c>
       <c r="B57" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125258.36144653296</v>
+        <v>126881.36144653296</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="B58" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>125596.30989604417</v>
+        <v>126166.30989604417</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
@@ -10037,7 +10037,7 @@
       </c>
       <c r="B59" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>127278.60243669846</v>
+        <v>126252.60243669846</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -10046,7 +10046,7 @@
       </c>
       <c r="B60" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>128368.19683959367</v>
+        <v>127819.19683959367</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -10055,7 +10055,7 @@
       </c>
       <c r="B61" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>128354.05114563918</v>
+        <v>127470.05114563918</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -10064,7 +10064,7 @@
       </c>
       <c r="B62" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>128714.12366975177</v>
+        <v>127570.12366975177</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -10073,7 +10073,7 @@
       </c>
       <c r="B63" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>128593.37300502407</v>
+        <v>129339.37300502407</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -10082,7 +10082,7 @@
       </c>
       <c r="B64" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>129256.75802686525</v>
+        <v>129627.75802686525</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="B65" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>129078.23789711347</v>
+        <v>129996.23789711347</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="B66" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>128871.77206811961</v>
+        <v>130232.77206811961</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -10109,7 +10109,7 @@
       </c>
       <c r="B67" s="2">
         <f t="shared" ref="B67:B130" ca="1" si="1">100000+50000*SIN(0.001*A67)+RANDBETWEEN(-1000, 1000)</f>
-        <v>129304.32028680197</v>
+        <v>129604.32028680197</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
@@ -10118,7 +10118,7 @@
       </c>
       <c r="B68" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>130558.84259867169</v>
+        <v>129853.84259867169</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
@@ -10127,7 +10127,7 @@
       </c>
       <c r="B69" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>131376.299351828</v>
+        <v>131250.299351828</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
@@ -10136,7 +10136,7 @@
       </c>
       <c r="B70" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>130782.65120092343</v>
+        <v>132285.65120092343</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
@@ -10145,7 +10145,7 @@
       </c>
       <c r="B71" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>131528.8591110984</v>
+        <v>132350.8591110984</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
@@ -10154,7 +10154,7 @@
       </c>
       <c r="B72" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>131323.88436188456</v>
+        <v>132837.88436188456</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -10163,7 +10163,7 @@
       </c>
       <c r="B73" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>133117.68855107683</v>
+        <v>132195.68855107683</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -10172,7 +10172,7 @@
       </c>
       <c r="B74" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132855.23359857366</v>
+        <v>132615.23359857366</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -10181,7 +10181,7 @@
       </c>
       <c r="B75" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>132521.4817501849</v>
+        <v>134237.4817501849</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="B76" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>133296.39558140724</v>
+        <v>132943.39558140724</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
@@ -10199,7 +10199,7 @@
       </c>
       <c r="B77" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>134350.93800116671</v>
+        <v>134396.93800116671</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
@@ -10208,7 +10208,7 @@
       </c>
       <c r="B78" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>134516.07225552757</v>
+        <v>134688.07225552757</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B79" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135190.76193136783</v>
+        <v>134495.76193136783</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
@@ -10226,7 +10226,7 @@
       </c>
       <c r="B80" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>134849.9709600205</v>
+        <v>135804.9709600205</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
@@ -10235,7 +10235,7 @@
       </c>
       <c r="B81" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>136181.6636208804</v>
+        <v>136063.6636208804</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
@@ -10244,7 +10244,7 @@
       </c>
       <c r="B82" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>136169.80454497616</v>
+        <v>135488.80454497616</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -10253,7 +10253,7 @@
       </c>
       <c r="B83" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135508.35871850714</v>
+        <v>136838.35871850714</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -10262,7 +10262,7 @@
       </c>
       <c r="B84" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>135572.29148634479</v>
+        <v>136481.29148634479</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -10271,7 +10271,7 @@
       </c>
       <c r="B85" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>136494.56855549815</v>
+        <v>137086.56855549815</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -10280,7 +10280,7 @@
       </c>
       <c r="B86" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137597.15599854296</v>
+        <v>137990.15599854296</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
@@ -10289,7 +10289,7 @@
       </c>
       <c r="B87" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137752.02025701464</v>
+        <v>137787.02025701464</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="B88" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137541.12814476385</v>
+        <v>137590.12814476385</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
@@ -10307,7 +10307,7 @@
       </c>
       <c r="B89" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>137597.44685127525</v>
+        <v>137397.44685127525</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
@@ -10316,7 +10316,7 @@
       </c>
       <c r="B90" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>138369.94394494846</v>
+        <v>138445.94394494846</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -10325,7 +10325,7 @@
       </c>
       <c r="B91" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>138954.58737634119</v>
+        <v>138405.58737634119</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B92" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>139134.34548137418</v>
+        <v>138371.34548137418</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
@@ -10343,7 +10343,7 @@
       </c>
       <c r="B93" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>138895.18698449753</v>
+        <v>139590.18698449753</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="B94" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140039.0810018183</v>
+        <v>140695.0810018183</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -10361,7 +10361,7 @@
       </c>
       <c r="B95" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>139886.99704418884</v>
+        <v>139584.99704418884</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B96" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>139527.90502025571</v>
+        <v>140959.90502025571</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -10379,7 +10379,7 @@
       </c>
       <c r="B97" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140012.7752394687</v>
+        <v>140623.7752394687</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -10388,7 +10388,7 @@
       </c>
       <c r="B98" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>141259.57841504991</v>
+        <v>140205.57841504991</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -10397,7 +10397,7 @@
       </c>
       <c r="B99" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142113.28566692251</v>
+        <v>140397.28566692251</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -10406,7 +10406,7 @@
       </c>
       <c r="B100" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>140929.86852459854</v>
+        <v>140848.86852459854</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -10415,7 +10415,7 @@
       </c>
       <c r="B101" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142509.29893002601</v>
+        <v>142332.29893002601</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
@@ -10424,7 +10424,7 @@
       </c>
       <c r="B102" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142144.54924039482</v>
+        <v>141178.54924039482</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="B103" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142786.59223090077</v>
+        <v>142639.59223090077</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -10442,7 +10442,7 @@
       </c>
       <c r="B104" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>141680.40109746816</v>
+        <v>142417.40109746816</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B105" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>143389.94945943018</v>
+        <v>143218.94945943018</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -10460,7 +10460,7 @@
       </c>
       <c r="B106" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142887.21136216691</v>
+        <v>143524.21136216691</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="B107" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142946.16127970084</v>
+        <v>143519.16127970084</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -10478,7 +10478,7 @@
       </c>
       <c r="B108" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>142682.7741172493</v>
+        <v>143467.7741172493</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -10487,7 +10487,7 @@
       </c>
       <c r="B109" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144633.02521373407</v>
+        <v>143568.02521373407</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -10496,7 +10496,7 @@
       </c>
       <c r="B110" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>143444.89034424737</v>
+        <v>143110.89034424737</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -10505,7 +10505,7 @@
       </c>
       <c r="B111" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>143927.34572247436</v>
+        <v>144387.34572247436</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="B112" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145203.36800307178</v>
+        <v>144269.36800307178</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -10523,7 +10523,7 @@
       </c>
       <c r="B113" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144342.93428400237</v>
+        <v>144564.93428400237</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -10532,7 +10532,7 @@
       </c>
       <c r="B114" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144637.02210882524</v>
+        <v>145642.02210882524</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -10541,7 +10541,7 @@
       </c>
       <c r="B115" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>144627.60946894129</v>
+        <v>144325.60946894129</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -10550,7 +10550,7 @@
       </c>
       <c r="B116" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145933.67480579417</v>
+        <v>144955.67480579417</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -10559,7 +10559,7 @@
       </c>
       <c r="B117" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145391.19701302605</v>
+        <v>145122.19701302605</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="B118" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145155.15543858835</v>
+        <v>145833.15543858835</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -10577,7 +10577,7 @@
       </c>
       <c r="B119" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145508.52988680679</v>
+        <v>145488.52988680679</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -10586,7 +10586,7 @@
       </c>
       <c r="B120" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145883.30062040102</v>
+        <v>145852.30062040102</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -10595,7 +10595,7 @@
       </c>
       <c r="B121" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146928.44836245832</v>
+        <v>145647.44836245832</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -10604,7 +10604,7 @@
       </c>
       <c r="B122" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145927.95429836132</v>
+        <v>147527.95429836132</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -10613,7 +10613,7 @@
       </c>
       <c r="B123" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>145791.80007766929</v>
+        <v>147483.80007766929</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -10622,7 +10622,7 @@
       </c>
       <c r="B124" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>147062.96781595337</v>
+        <v>146754.96781595337</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -10631,7 +10631,7 @@
       </c>
       <c r="B125" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146553.44009658488</v>
+        <v>147055.44009658488</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -10640,7 +10640,7 @@
       </c>
       <c r="B126" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>148148.19997247696</v>
+        <v>147841.19997247696</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -10649,7 +10649,7 @@
       </c>
       <c r="B127" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>147256.23096777929</v>
+        <v>147547.23096777929</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -10658,7 +10658,7 @@
       </c>
       <c r="B128" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>146890.5170795258</v>
+        <v>148086.5170795258</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -10667,7 +10667,7 @@
       </c>
       <c r="B129" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>147208.04277923462</v>
+        <v>147243.04277923462</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -10676,7 +10676,7 @@
       </c>
       <c r="B130" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>148818.79301446123</v>
+        <v>148035.79301446123</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="B131" s="2">
         <f t="shared" ref="B131:B194" ca="1" si="2">100000+50000*SIN(0.001*A131)+RANDBETWEEN(-1000, 1000)</f>
-        <v>147938.75321030364</v>
+        <v>148479.75321030364</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -10694,7 +10694,7 @@
       </c>
       <c r="B132" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148864.90927085964</v>
+        <v>147624.90927085964</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -10703,7 +10703,7 @@
       </c>
       <c r="B133" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147562.2475806367</v>
+        <v>148218.2475806367</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -10712,7 +10712,7 @@
       </c>
       <c r="B134" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147610.75500591326</v>
+        <v>147504.75500591326</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -10721,7 +10721,7 @@
       </c>
       <c r="B135" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149224.41889605223</v>
+        <v>148302.41889605223</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -10730,7 +10730,7 @@
       </c>
       <c r="B136" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148422.22708476597</v>
+        <v>149073.22708476597</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -10739,7 +10739,7 @@
       </c>
       <c r="B137" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148134.16789133294</v>
+        <v>148412.16789133294</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -10748,7 +10748,7 @@
       </c>
       <c r="B138" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149324.23012176581</v>
+        <v>149216.23012176581</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -10757,7 +10757,7 @@
       </c>
       <c r="B139" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148165.4030699307</v>
+        <v>149282.4030699307</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -10766,7 +10766,7 @@
       </c>
       <c r="B140" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150085.67651861798</v>
+        <v>149657.67651861798</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -10775,7 +10775,7 @@
       </c>
       <c r="B141" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150180.04074056383</v>
+        <v>149721.04074056383</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -10784,7 +10784,7 @@
       </c>
       <c r="B142" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149064.48649942302</v>
+        <v>148673.48649942302</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -10793,7 +10793,7 @@
       </c>
       <c r="B143" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148513.00505069253</v>
+        <v>148613.00505069253</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="B144" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149405.588142586</v>
+        <v>148479.588142586</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -10811,7 +10811,7 @@
       </c>
       <c r="B145" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149924.22801685889</v>
+        <v>149745.22801685889</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -10820,7 +10820,7 @@
       </c>
       <c r="B146" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149619.91740958433</v>
+        <v>149946.91740958433</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B147" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149859.64955187944</v>
+        <v>149065.64955187944</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="B148" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149234.41817058224</v>
+        <v>150498.41817058224</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -10847,7 +10847,7 @@
       </c>
       <c r="B149" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148917.21748887905</v>
+        <v>149501.21748887905</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -10856,7 +10856,7 @@
       </c>
       <c r="B150" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149186.04222688201</v>
+        <v>149119.04222688201</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -10865,7 +10865,7 @@
       </c>
       <c r="B151" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149975.88760215716</v>
+        <v>149911.88760215716</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -10874,7 +10874,7 @@
       </c>
       <c r="B152" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150791.74933020273</v>
+        <v>150353.74933020273</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -10883,7 +10883,7 @@
       </c>
       <c r="B153" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150613.62362487742</v>
+        <v>150660.62362487742</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -10892,7 +10892,7 @@
       </c>
       <c r="B154" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149727.50719877915</v>
+        <v>150817.50719877915</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -10901,7 +10901,7 @@
       </c>
       <c r="B155" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149912.3972635738</v>
+        <v>150890.3972635738</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -10910,7 +10910,7 @@
       </c>
       <c r="B156" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150285.29153027397</v>
+        <v>149302.29153027397</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="B157" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150491.18820946786</v>
+        <v>150786.18820946786</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -10928,7 +10928,7 @@
       </c>
       <c r="B158" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150015.08601149832</v>
+        <v>149651.08601149832</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -10937,7 +10937,7 @@
       </c>
       <c r="B159" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150384.98414659174</v>
+        <v>150543.98414659174</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -10946,7 +10946,7 @@
       </c>
       <c r="B160" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150928.882324937</v>
+        <v>149037.882324937</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -10955,7 +10955,7 @@
       </c>
       <c r="B161" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150061.78075671455</v>
+        <v>149995.78075671455</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -10964,7 +10964,7 @@
       </c>
       <c r="B162" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150009.68015207525</v>
+        <v>150186.68015207525</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -10973,7 +10973,7 @@
       </c>
       <c r="B163" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150304.58172106952</v>
+        <v>150642.58172106952</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -10982,7 +10982,7 @@
       </c>
       <c r="B164" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148970.4871735262</v>
+        <v>149819.4871735262</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -10991,7 +10991,7 @@
       </c>
       <c r="B165" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150644.39871888162</v>
+        <v>150097.39871888162</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="B166" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150703.31906595867</v>
+        <v>149859.31906595867</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -11009,7 +11009,7 @@
       </c>
       <c r="B167" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149900.25142269593</v>
+        <v>149760.25142269593</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -11018,7 +11018,7 @@
       </c>
       <c r="B168" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149254.19949582685</v>
+        <v>148961.19949582685</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -11027,7 +11027,7 @@
       </c>
       <c r="B169" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150715.16749050902</v>
+        <v>148777.16749050902</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B170" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149170.16010990378</v>
+        <v>149661.16010990378</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -11045,7 +11045,7 @@
       </c>
       <c r="B171" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150131.18255470594</v>
+        <v>149953.18255470594</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -11054,7 +11054,7 @@
       </c>
       <c r="B172" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149301.24052262341</v>
+        <v>149002.24052262341</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -11063,7 +11063,7 @@
       </c>
       <c r="B173" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148965.34020780789</v>
+        <v>148966.34020780789</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -11072,7 +11072,7 @@
       </c>
       <c r="B174" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148528.48830023507</v>
+        <v>149592.48830023507</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="B175" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>150045.69198503584</v>
+        <v>148714.69198503584</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -11090,7 +11090,7 @@
       </c>
       <c r="B176" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149160.95894177767</v>
+        <v>150184.95894177767</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -11099,7 +11099,7 @@
       </c>
       <c r="B177" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148950.29734369685</v>
+        <v>150098.29734369685</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -11108,7 +11108,7 @@
       </c>
       <c r="B178" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149253.71585688094</v>
+        <v>149359.71585688094</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -11117,7 +11117,7 @@
       </c>
       <c r="B179" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149752.22363940228</v>
+        <v>149248.22363940228</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -11126,7 +11126,7 @@
       </c>
       <c r="B180" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149669.83034040223</v>
+        <v>149836.83034040223</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -11135,7 +11135,7 @@
       </c>
       <c r="B181" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149135.54609912622</v>
+        <v>148071.54609912622</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -11144,7 +11144,7 @@
       </c>
       <c r="B182" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148561.38154390975</v>
+        <v>149350.38154390975</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="B183" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149228.34779111575</v>
+        <v>148421.34779111575</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="B184" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148377.45644402283</v>
+        <v>149013.45644402283</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -11171,7 +11171,7 @@
       </c>
       <c r="B185" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148928.71959166488</v>
+        <v>147364.71959166488</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -11180,7 +11180,7 @@
       </c>
       <c r="B186" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>149153.14980762239</v>
+        <v>148104.14980762239</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -11189,7 +11189,7 @@
       </c>
       <c r="B187" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148754.760148765</v>
+        <v>147801.760148765</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -11198,7 +11198,7 @@
       </c>
       <c r="B188" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148325.56415394571</v>
+        <v>147901.56415394571</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -11207,7 +11207,7 @@
       </c>
       <c r="B189" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147652.5758426472</v>
+        <v>147016.5758426472</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -11216,7 +11216,7 @@
       </c>
       <c r="B190" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>148060.80971357977</v>
+        <v>147951.80971357977</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -11225,7 +11225,7 @@
       </c>
       <c r="B191" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>147892.28074323153</v>
+        <v>148370.28074323153</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -11234,7 +11234,7 @@
       </c>
       <c r="B192" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>146637.00438437072</v>
+        <v>146557.00438437072</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="B193" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>146868.99656450053</v>
+        <v>148049.99656450053</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -11252,7 +11252,7 @@
       </c>
       <c r="B194" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>146368.27368426626</v>
+        <v>146260.27368426626</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -11261,7 +11261,7 @@
       </c>
       <c r="B195" s="2">
         <f t="shared" ref="B195:B258" ca="1" si="3">100000+50000*SIN(0.001*A195)+RANDBETWEEN(-1000, 1000)</f>
-        <v>146636.8526158153</v>
+        <v>146575.8526158153</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="B196" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>147023.75070111002</v>
+        <v>146340.75070111002</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -11279,7 +11279,7 @@
       </c>
       <c r="B197" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>146131.98575019347</v>
+        <v>145998.98575019347</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B198" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>146122.57603940842</v>
+        <v>146943.57603940842</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -11297,7 +11297,7 @@
       </c>
       <c r="B199" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>146656.54030956977</v>
+        <v>145447.54030956977</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -11306,7 +11306,7 @@
       </c>
       <c r="B200" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>145426.89776409051</v>
+        <v>145878.89776409051</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -11315,7 +11315,7 @@
       </c>
       <c r="B201" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>145166.66806706125</v>
+        <v>144979.66806706125</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -11324,7 +11324,7 @@
       </c>
       <c r="B202" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144581.87134128407</v>
+        <v>145367.87134128407</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -11333,7 +11333,7 @@
       </c>
       <c r="B203" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>145788.52816626005</v>
+        <v>144794.52816626005</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -11342,7 +11342,7 @@
       </c>
       <c r="B204" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>145796.65957613138</v>
+        <v>145311.65957613138</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -11351,7 +11351,7 @@
       </c>
       <c r="B205" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144534.28705757798</v>
+        <v>145228.28705757798</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -11360,7 +11360,7 @@
       </c>
       <c r="B206" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>145374.43254766898</v>
+        <v>145200.43254766898</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -11369,7 +11369,7 @@
       </c>
       <c r="B207" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143538.11843166879</v>
+        <v>145102.11843166879</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -11378,7 +11378,7 @@
       </c>
       <c r="B208" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>144593.3675407987</v>
+        <v>144729.3675407987</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="B209" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143284.20314995392</v>
+        <v>143581.20314995392</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -11396,7 +11396,7 @@
       </c>
       <c r="B210" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143702.64897537581</v>
+        <v>142923.64897537581</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="B211" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>143359.72917228064</v>
+        <v>143065.72917228064</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -11414,7 +11414,7 @@
       </c>
       <c r="B212" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>142862.46833244368</v>
+        <v>143240.46833244368</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -11423,7 +11423,7 @@
       </c>
       <c r="B213" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>142181.89148174046</v>
+        <v>142395.89148174046</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -11432,7 +11432,7 @@
       </c>
       <c r="B214" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>142879.02407764381</v>
+        <v>141810.02407764381</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B215" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141817.89200667851</v>
+        <v>141854.89200667851</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -11450,7 +11450,7 @@
       </c>
       <c r="B216" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>142368.52158183229</v>
+        <v>142139.52158183229</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -11459,7 +11459,7 @@
       </c>
       <c r="B217" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141228.93953992488</v>
+        <v>141118.93953992488</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -11468,7 +11468,7 @@
       </c>
       <c r="B218" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>140946.17303893415</v>
+        <v>141933.17303893415</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -11477,7 +11477,7 @@
       </c>
       <c r="B219" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>142068.24965528041</v>
+        <v>140380.24965528041</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="B220" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141944.19738106872</v>
+        <v>140952.19738106872</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -11495,7 +11495,7 @@
       </c>
       <c r="B221" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>140040.0446212898</v>
+        <v>141160.0446212898</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="B222" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>141202.82019097952</v>
+        <v>140837.82019097952</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -11513,7 +11513,7 @@
       </c>
       <c r="B223" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>139715.55331233738</v>
+        <v>139191.55331233738</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -11522,7 +11522,7 @@
       </c>
       <c r="B224" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138896.27361180432</v>
+        <v>139132.27361180432</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -11531,7 +11531,7 @@
       </c>
       <c r="B225" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>140041.01111710025</v>
+        <v>140415.01111710025</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -11540,7 +11540,7 @@
       </c>
       <c r="B226" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138966.796254221</v>
+        <v>139182.796254221</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -11549,7 +11549,7 @@
       </c>
       <c r="B227" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>139250.65984439605</v>
+        <v>138892.65984439605</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -11558,7 +11558,7 @@
       </c>
       <c r="B228" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138497.63310100627</v>
+        <v>138867.63310100627</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="B229" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>137334.74762646266</v>
+        <v>137775.74762646266</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -11576,7 +11576,7 @@
       </c>
       <c r="B230" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138163.0354090461</v>
+        <v>138473.0354090461</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -11585,7 +11585,7 @@
       </c>
       <c r="B231" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138174.52881970853</v>
+        <v>136759.52881970853</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -11594,7 +11594,7 @@
       </c>
       <c r="B232" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>138228.26060883602</v>
+        <v>137757.26060883602</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -11603,7 +11603,7 @@
       </c>
       <c r="B233" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>136535.26390297356</v>
+        <v>137811.26390297356</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -11612,7 +11612,7 @@
       </c>
       <c r="B234" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>136309.57220151258</v>
+        <v>137536.57220151258</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="B235" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>136377.21937334098</v>
+        <v>137111.21937334098</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -11630,7 +11630,7 @@
       </c>
       <c r="B236" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134960.23965345632</v>
+        <v>136201.23965345632</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
@@ -11639,7 +11639,7 @@
       </c>
       <c r="B237" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134733.66763954223</v>
+        <v>134614.66763954223</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="B238" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>135262.5382885088</v>
+        <v>135179.5382885088</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
@@ -11657,7 +11657,7 @@
       </c>
       <c r="B239" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134429.88691299688</v>
+        <v>135352.88691299688</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
@@ -11666,7 +11666,7 @@
       </c>
       <c r="B240" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134541.74917784682</v>
+        <v>135439.74917784682</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
@@ -11675,7 +11675,7 @@
       </c>
       <c r="B241" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134764.16109653199</v>
+        <v>134262.16109653199</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
@@ -11684,7 +11684,7 @@
       </c>
       <c r="B242" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>134238.15902755756</v>
+        <v>133969.15902755756</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
@@ -11693,7 +11693,7 @@
       </c>
       <c r="B243" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>133575.77967082456</v>
+        <v>133013.77967082456</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
@@ -11711,7 +11711,7 @@
       </c>
       <c r="B245" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>132203.03757861324</v>
+        <v>132551.03757861324</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
@@ -11720,7 +11720,7 @@
       </c>
       <c r="B246" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>132882.74991671855</v>
+        <v>132028.74991671855</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="B247" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>132774.23510672519</v>
+        <v>131708.23510672519</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B248" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>131621.53149979463</v>
+        <v>132280.53149979463</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
@@ -11747,7 +11747,7 @@
       </c>
       <c r="B249" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>131778.67776596523</v>
+        <v>130806.67776596523</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
@@ -11756,7 +11756,7 @@
       </c>
       <c r="B250" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>130677.71289028559</v>
+        <v>130581.71289028559</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
@@ -11765,7 +11765,7 @@
       </c>
       <c r="B251" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>129456.67616891573</v>
+        <v>130023.67616891573</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
@@ -11774,7 +11774,7 @@
       </c>
       <c r="B252" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>129492.60720519783</v>
+        <v>130230.60720519783</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
@@ -11783,7 +11783,7 @@
       </c>
       <c r="B253" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>129184.54590569563</v>
+        <v>129400.54590569563</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
@@ -11792,7 +11792,7 @@
       </c>
       <c r="B254" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>128712.5324762041</v>
+        <v>128805.5324762041</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
@@ -11801,7 +11801,7 @@
       </c>
       <c r="B255" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>128570.60741772861</v>
+        <v>128097.60741772861</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.25">
@@ -11810,7 +11810,7 @@
       </c>
       <c r="B256" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>127757.81152243513</v>
+        <v>128868.81152243513</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.25">
@@ -11819,7 +11819,7 @@
       </c>
       <c r="B257" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>127788.18586957084</v>
+        <v>127146.18586957084</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.25">
@@ -11828,7 +11828,7 @@
       </c>
       <c r="B258" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>126560.77182135632</v>
+        <v>127216.77182135632</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.25">
@@ -11837,7 +11837,7 @@
       </c>
       <c r="B259" s="2">
         <f t="shared" ref="B259:B322" ca="1" si="4">100000+50000*SIN(0.001*A259)+RANDBETWEEN(-1000, 1000)</f>
-        <v>127230.61101884942</v>
+        <v>127131.61101884942</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
@@ -11846,7 +11846,7 @@
       </c>
       <c r="B260" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>127019.74537778106</v>
+        <v>127053.74537778106</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.25">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="B261" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>125440.2170843638</v>
+        <v>125936.2170843638</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.25">
@@ -11864,7 +11864,7 @@
       </c>
       <c r="B262" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>125057.06859107321</v>
+        <v>125207.06859107321</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.25">
@@ -11873,7 +11873,7 @@
       </c>
       <c r="B263" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>125968.34261240267</v>
+        <v>125698.34261240267</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.25">
@@ -11882,7 +11882,7 @@
       </c>
       <c r="B264" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>123965.08212059192</v>
+        <v>124839.08212059192</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.25">
@@ -11891,7 +11891,7 @@
       </c>
       <c r="B265" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>123915.33034132997</v>
+        <v>125228.33034132997</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B266" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>124294.13074943241</v>
+        <v>123371.13074943241</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.25">
@@ -11909,7 +11909,7 @@
       </c>
       <c r="B267" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>122988.52706449413</v>
+        <v>123839.52706449413</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.25">
@@ -11918,7 +11918,7 @@
       </c>
       <c r="B268" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>123629.56324651727</v>
+        <v>122644.56324651727</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.25">
@@ -11927,7 +11927,7 @@
       </c>
       <c r="B269" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>122155.28349151532</v>
+        <v>123563.28349151532</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.25">
@@ -11936,7 +11936,7 @@
       </c>
       <c r="B270" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>123155.73222709355</v>
+        <v>123264.73222709355</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.25">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="B271" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>120841.95410800632</v>
+        <v>121127.95410800632</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.25">
@@ -11954,7 +11954,7 @@
       </c>
       <c r="B272" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>122232.99401169148</v>
+        <v>120548.99401169148</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
       </c>
       <c r="B273" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>120818.89703378295</v>
+        <v>121416.89703378295</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.25">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="B274" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>120252.70848360087</v>
+        <v>120051.70848360087</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
@@ -11981,7 +11981,7 @@
       </c>
       <c r="B275" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>120001.47387962097</v>
+        <v>120205.47387962097</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.25">
@@ -11990,7 +11990,7 @@
       </c>
       <c r="B276" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>118978.2389449226</v>
+        <v>120437.2389449226</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.25">
@@ -11999,7 +11999,7 @@
       </c>
       <c r="B277" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>118519.04960261658</v>
+        <v>118759.04960261658</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.25">
@@ -12008,7 +12008,7 @@
       </c>
       <c r="B278" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>118453.95197125277</v>
+        <v>118655.95197125277</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.25">
@@ -12017,7 +12017,7 @@
       </c>
       <c r="B279" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>118730.99236020842</v>
+        <v>118576.99236020842</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.25">
@@ -12026,7 +12026,7 @@
       </c>
       <c r="B280" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>117616.21726505713</v>
+        <v>118602.21726505713</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.25">
@@ -12035,7 +12035,7 @@
       </c>
       <c r="B281" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>117552.67336291951</v>
+        <v>116283.67336291951</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.25">
@@ -12044,7 +12044,7 @@
       </c>
       <c r="B282" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>116633.40750779523</v>
+        <v>116659.40750779523</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.25">
@@ -12053,7 +12053,7 @@
       </c>
       <c r="B283" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>115693.466725878</v>
+        <v>115430.466725878</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.25">
@@ -12062,7 +12062,7 @@
       </c>
       <c r="B284" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>116550.8982108527</v>
+        <v>116439.8982108527</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.25">
@@ -12071,7 +12071,7 @@
       </c>
       <c r="B285" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>114429.74931917615</v>
+        <v>115304.74931917615</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.25">
@@ -12080,7 +12080,7 @@
       </c>
       <c r="B286" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>114752.06756534163</v>
+        <v>114507.06756534163</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.25">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B287" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>114792.90061712722</v>
+        <v>115069.90061712722</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.25">
@@ -12098,7 +12098,7 @@
       </c>
       <c r="B288" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>114570.29629082934</v>
+        <v>113203.29629082934</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.25">
@@ -12107,7 +12107,7 @@
       </c>
       <c r="B289" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>113575.3025464809</v>
+        <v>112714.3025464809</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
@@ -12116,7 +12116,7 @@
       </c>
       <c r="B290" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>112872.96748305555</v>
+        <v>113819.96748305555</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.25">
@@ -12125,7 +12125,7 @@
       </c>
       <c r="B291" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>112948.33933365763</v>
+        <v>111960.33933365763</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.25">
@@ -12134,7 +12134,7 @@
       </c>
       <c r="B292" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>111177.46646069913</v>
+        <v>111365.46646069913</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.25">
@@ -12143,7 +12143,7 @@
       </c>
       <c r="B293" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>111284.39735106321</v>
+        <v>111119.39735106321</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.25">
@@ -12152,7 +12152,7 @@
       </c>
       <c r="B294" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>111217.18061125584</v>
+        <v>111280.18061125584</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.25">
@@ -12161,7 +12161,7 @@
       </c>
       <c r="B295" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>110797.86496254496</v>
+        <v>109859.86496254496</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.25">
@@ -12170,7 +12170,7 @@
       </c>
       <c r="B296" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>110347.49923608852</v>
+        <v>110580.49923608852</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.25">
@@ -12179,7 +12179,7 @@
       </c>
       <c r="B297" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>109001.13236805136</v>
+        <v>110308.13236805136</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.25">
@@ -12188,7 +12188,7 @@
       </c>
       <c r="B298" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>108495.81339471164</v>
+        <v>108845.81339471164</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.25">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="B299" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>108074.59144755726</v>
+        <v>109108.59144755726</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.25">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B300" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>107166.51574837278</v>
+        <v>107740.51574837278</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.25">
@@ -12215,7 +12215,7 @@
       </c>
       <c r="B301" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>108178.6356043172</v>
+        <v>108537.6356043172</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.25">
@@ -12224,7 +12224,7 @@
       </c>
       <c r="B302" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>106770.00040299336</v>
+        <v>107709.00040299336</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.25">
@@ -12233,7 +12233,7 @@
       </c>
       <c r="B303" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>105853.65960750919</v>
+        <v>106336.65960750919</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.25">
@@ -12242,7 +12242,7 @@
       </c>
       <c r="B304" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>105275.66275153149</v>
+        <v>105950.66275153149</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.25">
@@ -12251,7 +12251,7 @@
       </c>
       <c r="B305" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>104876.05943433248</v>
+        <v>106194.05943433248</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.25">
@@ -12260,7 +12260,7 @@
       </c>
       <c r="B306" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>105891.89931583009</v>
+        <v>105471.89931583009</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.25">
@@ -12269,7 +12269,7 @@
       </c>
       <c r="B307" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>103760.23211162184</v>
+        <v>105572.23211162184</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.25">
@@ -12278,7 +12278,7 @@
       </c>
       <c r="B308" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>103630.10758801346</v>
+        <v>103258.10758801346</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.25">
@@ -12287,7 +12287,7 @@
       </c>
       <c r="B309" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>103194.57555704216</v>
+        <v>103115.57555704216</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.25">
@@ -12296,7 +12296,7 @@
       </c>
       <c r="B310" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102896.68587149566</v>
+        <v>102126.68587149566</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.25">
@@ -12305,7 +12305,7 @@
       </c>
       <c r="B311" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>103514.48841992673</v>
+        <v>101691.48841992673</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.25">
@@ -12314,7 +12314,7 @@
       </c>
       <c r="B312" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>102295.03312166453</v>
+        <v>102188.03312166453</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.25">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B313" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>100631.3699218227</v>
+        <v>101820.3699218227</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.25">
@@ -12332,7 +12332,7 @@
       </c>
       <c r="B314" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>100453.5487863048</v>
+        <v>101704.5487863048</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.25">
@@ -12341,7 +12341,7 @@
       </c>
       <c r="B315" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>100523.61969680792</v>
+        <v>99627.619696807917</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.25">
@@ -12350,7 +12350,7 @@
       </c>
       <c r="B316" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>99133.632645824342</v>
+        <v>99635.632645824342</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.25">
@@ -12359,7 +12359,7 @@
       </c>
       <c r="B317" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>99734.637631642574</v>
+        <v>100226.63763164257</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
@@ -12368,7 +12368,7 @@
       </c>
       <c r="B318" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>98418.684653347314</v>
+        <v>98537.684653347314</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.25">
@@ -12377,7 +12377,7 @@
       </c>
       <c r="B319" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>98505.823705819814</v>
+        <v>99327.823705819814</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
@@ -12386,7 +12386,7 @@
       </c>
       <c r="B320" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>99033.104774738225</v>
+        <v>97980.104774738225</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.25">
@@ -12395,7 +12395,7 @@
       </c>
       <c r="B321" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>97432.5778315793</v>
+        <v>97474.5778315793</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.25">
@@ -12404,7 +12404,7 @@
       </c>
       <c r="B322" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>97435.292828620994</v>
+        <v>96270.292828620994</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.25">
@@ -12413,7 +12413,7 @@
       </c>
       <c r="B323" s="2">
         <f t="shared" ref="B323:B362" ca="1" si="5">100000+50000*SIN(0.001*A323)+RANDBETWEEN(-1000, 1000)</f>
-        <v>96735.299693947614</v>
+        <v>96770.299693947614</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.25">
@@ -12422,7 +12422,7 @@
       </c>
       <c r="B324" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>95670.648326456736</v>
+        <v>95158.648326456736</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
@@ -12431,7 +12431,7 @@
       </c>
       <c r="B325" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>95965.388590869625</v>
+        <v>96000.388590869625</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.25">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="B326" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>95804.570312744559</v>
+        <v>94398.570312744559</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
@@ -12449,7 +12449,7 @@
       </c>
       <c r="B327" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>94164.243273494576</v>
+        <v>95387.243273494576</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
@@ -12458,7 +12458,7 @@
       </c>
       <c r="B328" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>94798.457205409111</v>
+        <v>94349.457205409111</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
@@ -12467,7 +12467,7 @@
       </c>
       <c r="B329" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>94071.261786681018</v>
+        <v>92833.261786681018</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
@@ -12476,7 +12476,7 @@
       </c>
       <c r="B330" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>94084.706636438641</v>
+        <v>93445.706636438641</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.25">
@@ -12485,7 +12485,7 @@
       </c>
       <c r="B331" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>93360.841309784068</v>
+        <v>93045.841309784068</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="B332" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>92147.715292837573</v>
+        <v>91601.715292837573</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.25">
@@ -12503,7 +12503,7 @@
       </c>
       <c r="B333" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>91135.377997789081</v>
+        <v>90850.377997789081</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.25">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B334" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>91208.878757956976</v>
+        <v>91935.878757956976</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.25">
@@ -12521,7 +12521,7 @@
       </c>
       <c r="B335" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>90374.266822854843</v>
+        <v>90842.266822854843</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.25">
@@ -12530,7 +12530,7 @@
       </c>
       <c r="B336" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>89770.5913532665</v>
+        <v>89873.5913532665</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.25">
@@ -12539,7 +12539,7 @@
       </c>
       <c r="B337" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>90647.901416330016</v>
+        <v>89043.901416330016</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.25">
@@ -12548,7 +12548,7 @@
       </c>
       <c r="B338" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>88619.245980631022</v>
+        <v>89362.245980631022</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.25">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B339" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>88437.673911305843</v>
+        <v>89181.673911305843</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.25">
@@ -12566,7 +12566,7 @@
       </c>
       <c r="B340" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>87647.233965155145</v>
+        <v>87548.233965155145</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.25">
@@ -12575,7 +12575,7 @@
       </c>
       <c r="B341" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>87859.97478576815</v>
+        <v>88137.97478576815</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.25">
@@ -12584,7 +12584,7 @@
       </c>
       <c r="B342" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>88087.944898658432</v>
+        <v>86530.944898658432</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.25">
@@ -12593,7 +12593,7 @@
       </c>
       <c r="B343" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>85894.192706411326</v>
+        <v>86451.192706411326</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.25">
@@ -12602,7 +12602,7 @@
       </c>
       <c r="B344" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>87156.766483843792</v>
+        <v>86877.766483843792</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.25">
@@ -12611,7 +12611,7 @@
       </c>
       <c r="B345" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>85967.714373176874</v>
+        <v>85898.714373176874</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
@@ -12620,7 +12620,7 @@
       </c>
       <c r="B346" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>85964.084379221618</v>
+        <v>85955.084379221618</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.25">
@@ -12629,7 +12629,7 @@
       </c>
       <c r="B347" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>85535.924364578532</v>
+        <v>85560.924364578532</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.25">
@@ -12638,7 +12638,7 @@
       </c>
       <c r="B348" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>83566.282044851483</v>
+        <v>83769.282044851483</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.25">
@@ -12647,7 +12647,7 @@
       </c>
       <c r="B349" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>84713.204983876058</v>
+        <v>83592.204983876058</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.25">
@@ -12656,7 +12656,7 @@
       </c>
       <c r="B350" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>82486.740588963294</v>
+        <v>83457.740588963294</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.25">
@@ -12665,7 +12665,7 @@
       </c>
       <c r="B351" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>82953.936106158944</v>
+        <v>83237.936106158944</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.25">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="B352" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>82611.838615519009</v>
+        <v>83344.838615519009</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.25">
@@ -12683,7 +12683,7 @@
       </c>
       <c r="B353" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>82492.495026401564</v>
+        <v>81832.495026401564</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.25">
@@ -12692,7 +12692,7 @@
       </c>
       <c r="B354" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>82085.952072776141</v>
+        <v>81107.952072776141</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.25">
@@ -12701,7 +12701,7 @@
       </c>
       <c r="B355" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>80922.256308550102</v>
+        <v>81980.256308550102</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
@@ -12710,7 +12710,7 @@
       </c>
       <c r="B356" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>80120.454102913485</v>
+        <v>81585.454102913485</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.25">
@@ -12719,7 +12719,7 @@
       </c>
       <c r="B357" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>79609.591635701989</v>
+        <v>79312.591635701989</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.25">
@@ -12728,7 +12728,7 @@
       </c>
       <c r="B358" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>78944.714892779157</v>
+        <v>80589.714892779157</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.25">
@@ -12737,7 +12737,7 @@
       </c>
       <c r="B359" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>79218.869661437682</v>
+        <v>79275.869661437682</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.25">
@@ -12746,7 +12746,7 @@
       </c>
       <c r="B360" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>79049.101525820879</v>
+        <v>78058.101525820879</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.25">
@@ -12755,7 +12755,7 @@
       </c>
       <c r="B361" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>78915.455862364121</v>
+        <v>77589.455862364121</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.25">
@@ -12764,7 +12764,7 @@
       </c>
       <c r="B362" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>78126.977835257378</v>
+        <v>77909.977835257378</v>
       </c>
     </row>
   </sheetData>
